--- a/ArduinoMotorCode-Austin/Excel Stuff/Delay Calculations and Plots.xlsx
+++ b/ArduinoMotorCode-Austin/Excel Stuff/Delay Calculations and Plots.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25580" windowHeight="11770"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25575" windowHeight="11775"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>Na</t>
   </si>
@@ -61,6 +61,18 @@
   <si>
     <t>Delta Deay</t>
   </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deay </t>
+  </si>
+  <si>
+    <t>decel</t>
+  </si>
+  <si>
+    <t>plusC</t>
+  </si>
 </sst>
 </file>
 
@@ -83,7 +95,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -170,11 +182,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -184,6 +209,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -503,11 +530,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="900082080"/>
-        <c:axId val="900095136"/>
+        <c:axId val="1158977776"/>
+        <c:axId val="1158978320"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="900082080"/>
+        <c:axId val="1158977776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -564,12 +591,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="900095136"/>
+        <c:crossAx val="1158978320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="900095136"/>
+        <c:axId val="1158978320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -626,7 +653,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="900082080"/>
+        <c:crossAx val="1158977776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1028,11 +1055,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="945212144"/>
-        <c:axId val="945210512"/>
+        <c:axId val="850084160"/>
+        <c:axId val="850084704"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="945212144"/>
+        <c:axId val="850084160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1089,12 +1116,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="945210512"/>
+        <c:crossAx val="850084704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="945210512"/>
+        <c:axId val="850084704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1151,7 +1178,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="945212144"/>
+        <c:crossAx val="850084160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1379,10 +1406,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$O$3:$O$37</c:f>
+              <c:f>Sheet1!$O$3:$O$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1487,16 +1514,37 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$P$3:$P$37</c:f>
+              <c:f>Sheet1!$P$3:$P$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>500</c:v>
                 </c:pt>
@@ -1601,6 +1649,27 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>148.16557642268981</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>146.23933777589991</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>144.38663113869552</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>142.60288304022288</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>140.88390924560736</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>139.22587312163523</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>137.62524932454835</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>136.07879202352888</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1615,11 +1684,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="946877872"/>
-        <c:axId val="946883856"/>
+        <c:axId val="850087424"/>
+        <c:axId val="850086336"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="946877872"/>
+        <c:axId val="850087424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1676,12 +1745,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="946883856"/>
+        <c:crossAx val="850086336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="946883856"/>
+        <c:axId val="850086336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1738,8 +1807,2393 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="946877872"/>
+        <c:crossAx val="850087424"/>
         <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$U$43:$U$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$W$43:$W$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>135.13513513513513</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>142.967542503864</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>152.30687108281734</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>163.69903898470318</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>178.00960999748384</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>196.70923519666985</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>222.54279753057244</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>261.37713857125505</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>328.75726312859001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>486.50292417220248</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1193294656"/>
+        <c:axId val="1193288672"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1193294656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1193288672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1193288672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1193294656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Deay &amp; TPS vs N</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$O$3:$O$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Sheet1!$P$3:$P$43,Sheet1!$W$43:$W$52)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>434.78260869565224</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>390.49235993208822</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>357.76063550246795</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>332.24563173963725</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>311.60717324130565</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>294.45253958317244</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>279.89216332066826</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>267.32679509898935</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>256.33559411566148</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>246.61293771867986</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>237.9306657948664</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>230.11445974813614</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>223.02848811372041</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>216.56509759864639</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>210.6376970072015</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>205.175725580174</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>200.12101943725156</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>195.42513834209421</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>191.04736612065608</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>186.95319259483949</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>183.11314554605451</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>179.50188103047458</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>176.09746703269593</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>172.88081363932088</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>169.83521554000254</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>166.9459815608916</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>164.20013229457618</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>161.58615149509842</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>159.09378028100309</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>156.71384568996837</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>154.43811700098286</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>152.25918465569157</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>150.17035769058657</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>148.16557642268981</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>146.23933777589991</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>144.38663113869552</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>142.60288304022288</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>140.88390924560736</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>139.22587312163523</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>137.62524932454835</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>135.13513513513513</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>142.967542503864</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>152.30687108281734</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>163.69903898470318</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>178.00960999748384</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>196.70923519666985</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>222.54279753057244</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>261.37713857125505</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>328.75726312859001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>486.50292417220248</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1193285408"/>
+        <c:axId val="1193299552"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$O$3:$O$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Sheet1!$R$3:$R$43,Sheet1!$X$43:$X$52)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.608695652173918</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27.95164981176644</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30.098213624781238</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.091687415219077</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33.961330454666886</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35.728045692165914</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>37.407398672089961</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>39.011359442683904</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40.549373007377881</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42.029050633689941</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43.456634628459057</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44.837321386948027</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>46.175492315630194</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>47.474882901222138</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>48.73870908326542</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>49.969763436746454</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>51.170489553369904</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>52.343040383422476</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>53.489324580146445</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>54.611043735715384</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>55.709722608991875</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>56.786733895174685</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>57.843318697370762</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>58.880603579206614</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>59.899614872446733</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>60.90129076181212</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>61.886491555579511</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>62.856008464550072</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>63.81057114623615</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>64.750854220375913</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>65.677482922382069</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>66.591038030315957</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>67.492060176459574</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>68.381053634995254</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>69.258489661651282</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>70.124809448483433</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>70.98042674672439</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>71.825730202197846</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>72.661085440927806</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>69.945945945945937</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>65.656919670830007</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>61.087713538345497</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>56.176742368804412</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>50.836454068879895</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44.935177012979814</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>38.258893087062624</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>30.417578929924975</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>20.554861036067283</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1197129200"/>
+        <c:axId val="1197134096"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1193285408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1193299552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1193299552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1193285408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1197134096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1197129200"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1197129200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1197134096"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Deay</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> &amp; TPS vs time</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Sheet1!$M$2:$M$41,Sheet1!$T$44:$T$52)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="49"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>934.78260869565224</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1325.2749686277405</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1683.0356041302084</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2015.2812358698457</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2326.8884091111513</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2621.3409486943237</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2901.233112014992</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3168.5599071139814</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3424.8955012296428</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3671.5084389483227</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3909.4391047431891</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4139.5535644913252</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4362.5820526050456</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4579.147150203692</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4789.7848472108935</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4994.9605727910675</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5195.0815922283191</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5390.5067305704133</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5581.5540966910694</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5768.5072892859089</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5951.6204348319634</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6131.122315862438</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6307.2197828951339</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6480.1005965344548</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6649.9358120744573</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6816.8817936353489</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6981.0819259299251</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7142.6680774250235</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7301.7618577060266</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7458.475703395995</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7612.9138203969778</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7765.1730050526694</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7915.343362743256</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8063.5089391659458</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8209.7482769418457</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8354.1349080805412</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8496.7377911207641</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8637.6217003663714</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>8772.7568355015064</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>8915.7243780053705</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>9068.0312490881879</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>9231.7302880728912</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>9409.7398980703747</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>9606.4491332670441</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>9828.9919307976179</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>10090.369069368873</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>10419.126332497462</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Sheet1!$P$3:$P$41,Sheet1!$W$43:$W$51)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>434.78260869565224</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>390.49235993208822</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>357.76063550246795</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>332.24563173963725</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>311.60717324130565</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>294.45253958317244</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>279.89216332066826</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>267.32679509898935</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>256.33559411566148</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>246.61293771867986</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>237.9306657948664</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>230.11445974813614</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>223.02848811372041</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>216.56509759864639</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>210.6376970072015</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>205.175725580174</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>200.12101943725156</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>195.42513834209421</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>191.04736612065608</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>186.95319259483949</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>183.11314554605451</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>179.50188103047458</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>176.09746703269593</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>172.88081363932088</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>169.83521554000254</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>166.9459815608916</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>164.20013229457618</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>161.58615149509842</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>159.09378028100309</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>156.71384568996837</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>154.43811700098286</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>152.25918465569157</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>150.17035769058657</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>148.16557642268981</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>146.23933777589991</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>144.38663113869552</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>142.60288304022288</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>140.88390924560736</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>135.13513513513513</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>142.967542503864</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>152.30687108281734</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>163.69903898470318</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>178.00960999748384</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>196.70923519666985</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>222.54279753057244</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>261.37713857125505</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>328.75726312859001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1197155856"/>
+        <c:axId val="1197147152"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Sheet1!$M$2:$M$41,Sheet1!$T$44:$T$52)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="49"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>934.78260869565224</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1325.2749686277405</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1683.0356041302084</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2015.2812358698457</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2326.8884091111513</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2621.3409486943237</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2901.233112014992</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3168.5599071139814</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3424.8955012296428</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3671.5084389483227</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3909.4391047431891</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4139.5535644913252</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4362.5820526050456</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4579.147150203692</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4789.7848472108935</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4994.9605727910675</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5195.0815922283191</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5390.5067305704133</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5581.5540966910694</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5768.5072892859089</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5951.6204348319634</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6131.122315862438</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6307.2197828951339</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6480.1005965344548</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6649.9358120744573</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6816.8817936353489</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6981.0819259299251</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7142.6680774250235</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7301.7618577060266</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7458.475703395995</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7612.9138203969778</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7765.1730050526694</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7915.343362743256</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8063.5089391659458</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8209.7482769418457</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8354.1349080805412</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8496.7377911207641</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8637.6217003663714</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>8772.7568355015064</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>8915.7243780053705</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>9068.0312490881879</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>9231.7302880728912</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>9409.7398980703747</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>9606.4491332670441</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>9828.9919307976179</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>10090.369069368873</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>10419.126332497462</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Sheet1!$R$3:$R$43,Sheet1!$X$43:$X$52)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.608695652173918</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27.95164981176644</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30.098213624781238</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.091687415219077</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33.961330454666886</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35.728045692165914</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>37.407398672089961</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>39.011359442683904</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40.549373007377881</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42.029050633689941</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43.456634628459057</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44.837321386948027</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>46.175492315630194</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>47.474882901222138</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>48.73870908326542</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>49.969763436746454</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>51.170489553369904</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>52.343040383422476</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>53.489324580146445</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>54.611043735715384</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>55.709722608991875</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>56.786733895174685</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>57.843318697370762</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>58.880603579206614</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>59.899614872446733</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>60.90129076181212</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>61.886491555579511</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>62.856008464550072</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>63.81057114623615</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>64.750854220375913</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>65.677482922382069</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>66.591038030315957</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>67.492060176459574</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>68.381053634995254</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>69.258489661651282</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>70.124809448483433</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>70.98042674672439</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>71.825730202197846</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>72.661085440927806</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>69.945945945945937</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>65.656919670830007</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>61.087713538345497</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>56.176742368804412</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>50.836454068879895</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44.935177012979814</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>38.258893087062624</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>30.417578929924975</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>20.554861036067283</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1302292208"/>
+        <c:axId val="1302272080"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1197155856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1197147152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1197147152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1197155856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1302272080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1302292208"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1302292208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1302272080"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -1907,6 +4361,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2940,6 +5514,1554 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3542,6 +7664,96 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3813,18 +8025,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R53"/>
+  <dimension ref="A1:X55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F22" workbookViewId="0">
-      <selection activeCell="R25" sqref="R25"/>
+    <sheetView tabSelected="1" topLeftCell="C51" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S55" sqref="S55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="17" max="17" width="10.81640625" customWidth="1"/>
+    <col min="17" max="17" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -3847,12 +8059,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <f>$E$3*10000/(30*A2+20*$E$3)</f>
+        <f t="shared" ref="B2:B36" si="0">$E$3*10000/(30*A2+20*$E$3)</f>
         <v>500</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -3887,12 +8099,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <f>$E$3*10000/(30*A3+20*$E$3)</f>
+        <f t="shared" si="0"/>
         <v>476.1904761904762</v>
       </c>
       <c r="C3">
@@ -3907,7 +8119,7 @@
         <v>1000</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I36" si="0">10000/B3</f>
+        <f t="shared" ref="I3:I36" si="1">10000/B3</f>
         <v>21</v>
       </c>
       <c r="L3" t="s">
@@ -3925,20 +8137,20 @@
         <v>500</v>
       </c>
       <c r="R3" s="1">
-        <f>10000/P3</f>
+        <f t="shared" ref="R3:R37" si="2">10000/P3</f>
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <f>$E$3*10000/(30*A4+20*$E$3)</f>
+        <f t="shared" si="0"/>
         <v>454.54545454545456</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C36" si="1">B3-B4</f>
+        <f t="shared" ref="C4:C36" si="3">B3-B4</f>
         <v>21.645021645021643</v>
       </c>
       <c r="H4">
@@ -3946,21 +8158,21 @@
         <v>1952.3809523809523</v>
       </c>
       <c r="I4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="L4" t="s">
         <v>9</v>
       </c>
       <c r="M4">
-        <f t="shared" ref="M4:M53" si="2">10000/(6000*10^-6*M3+20)+M3</f>
+        <f t="shared" ref="M4:M53" si="4">10000/(6000*10^-6*M3+20)+M3</f>
         <v>934.78260869565224</v>
       </c>
       <c r="O4">
         <v>1</v>
       </c>
       <c r="P4" s="7">
-        <f t="shared" ref="P4:P53" si="3">M4-M3</f>
+        <f t="shared" ref="P4:P53" si="5">M4-M3</f>
         <v>434.78260869565224</v>
       </c>
       <c r="Q4">
@@ -3968,20 +8180,20 @@
         <v>65.217391304347757</v>
       </c>
       <c r="R4" s="1">
-        <f>10000/P4</f>
+        <f t="shared" si="2"/>
         <v>22.999999999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <f>$E$3*10000/(30*A5+20*$E$3)</f>
+        <f t="shared" si="0"/>
         <v>434.78260869565219</v>
       </c>
       <c r="C5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>19.762845849802375</v>
       </c>
       <c r="H5">
@@ -3989,39 +8201,39 @@
         <v>2861.4718614718613</v>
       </c>
       <c r="I5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="M5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1325.2749686277405</v>
       </c>
       <c r="O5">
         <v>2</v>
       </c>
       <c r="P5" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>390.49235993208822</v>
       </c>
       <c r="Q5">
-        <f t="shared" ref="Q5:Q53" si="4">P4-P5</f>
+        <f t="shared" ref="Q5:Q53" si="6">P4-P5</f>
         <v>44.290248763564023</v>
       </c>
       <c r="R5" s="1">
-        <f>10000/P5</f>
+        <f t="shared" si="2"/>
         <v>25.608695652173918</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <f>$E$3*10000/(30*A6+20*$E$3)</f>
+        <f t="shared" si="0"/>
         <v>416.66666666666669</v>
       </c>
       <c r="C6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>18.115942028985501</v>
       </c>
       <c r="H6">
@@ -4029,39 +8241,39 @@
         <v>3731.0370788631658</v>
       </c>
       <c r="I6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="M6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1683.0356041302084</v>
       </c>
       <c r="O6">
         <v>3</v>
       </c>
       <c r="P6" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>357.76063550246795</v>
       </c>
       <c r="Q6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>32.731724429620272</v>
       </c>
       <c r="R6" s="1">
-        <f>10000/P6</f>
+        <f t="shared" si="2"/>
         <v>27.95164981176644</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <f>$E$3*10000/(30*A7+20*$E$3)</f>
+        <f t="shared" si="0"/>
         <v>400</v>
       </c>
       <c r="C7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>16.666666666666686</v>
       </c>
       <c r="H7">
@@ -4069,39 +8281,39 @@
         <v>4564.3704121964993</v>
       </c>
       <c r="I7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="M7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2015.2812358698457</v>
       </c>
       <c r="O7">
         <v>4</v>
       </c>
       <c r="P7" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>332.24563173963725</v>
       </c>
       <c r="Q7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>25.515003762830702</v>
       </c>
       <c r="R7" s="1">
-        <f>10000/P7</f>
+        <f t="shared" si="2"/>
         <v>30.098213624781238</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <f>$E$3*10000/(30*A8+20*$E$3)</f>
+        <f t="shared" si="0"/>
         <v>384.61538461538464</v>
       </c>
       <c r="C8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>15.384615384615358</v>
       </c>
       <c r="H8">
@@ -4109,39 +8321,39 @@
         <v>5364.3704121964993</v>
       </c>
       <c r="I8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="M8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2326.8884091111513</v>
       </c>
       <c r="O8">
         <v>5</v>
       </c>
       <c r="P8" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>311.60717324130565</v>
       </c>
       <c r="Q8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>20.638458498331602</v>
       </c>
       <c r="R8" s="1">
-        <f>10000/P8</f>
+        <f t="shared" si="2"/>
         <v>32.091687415219077</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <f>$E$3*10000/(30*A9+20*$E$3)</f>
+        <f t="shared" si="0"/>
         <v>370.37037037037038</v>
       </c>
       <c r="C9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>14.245014245014261</v>
       </c>
       <c r="H9">
@@ -4149,39 +8361,39 @@
         <v>6133.6011814272688</v>
       </c>
       <c r="I9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="M9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2621.3409486943237</v>
       </c>
       <c r="O9">
         <v>6</v>
       </c>
       <c r="P9" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>294.45253958317244</v>
       </c>
       <c r="Q9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>17.154633658133207</v>
       </c>
       <c r="R9" s="1">
-        <f>10000/P9</f>
+        <f t="shared" si="2"/>
         <v>33.961330454666886</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <f>$E$3*10000/(30*A10+20*$E$3)</f>
+        <f t="shared" si="0"/>
         <v>357.14285714285717</v>
       </c>
       <c r="C10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>13.227513227513214</v>
       </c>
       <c r="H10">
@@ -4189,39 +8401,39 @@
         <v>6874.3419221680097</v>
       </c>
       <c r="I10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27.999999999999996</v>
       </c>
       <c r="M10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2901.233112014992</v>
       </c>
       <c r="O10">
         <v>7</v>
       </c>
       <c r="P10" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>279.89216332066826</v>
       </c>
       <c r="Q10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>14.560376262504178</v>
       </c>
       <c r="R10" s="1">
-        <f>10000/P10</f>
+        <f t="shared" si="2"/>
         <v>35.728045692165914</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <f>$E$3*10000/(30*A11+20*$E$3)</f>
+        <f t="shared" si="0"/>
         <v>344.82758620689657</v>
       </c>
       <c r="C11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>12.315270935960598</v>
       </c>
       <c r="H11">
@@ -4229,39 +8441,39 @@
         <v>7588.6276364537243</v>
       </c>
       <c r="I11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="M11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3168.5599071139814</v>
       </c>
       <c r="O11">
         <v>8</v>
       </c>
       <c r="P11" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>267.32679509898935</v>
       </c>
       <c r="Q11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>12.565368221678909</v>
       </c>
       <c r="R11" s="1">
-        <f>10000/P11</f>
+        <f t="shared" si="2"/>
         <v>37.407398672089961</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <f>$E$3*10000/(30*A12+20*$E$3)</f>
+        <f t="shared" si="0"/>
         <v>333.33333333333331</v>
       </c>
       <c r="C12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>11.494252873563255</v>
       </c>
       <c r="H12">
@@ -4269,39 +8481,39 @@
         <v>8278.2828088675178</v>
       </c>
       <c r="I12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="M12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3424.8955012296428</v>
       </c>
       <c r="O12">
         <v>9</v>
       </c>
       <c r="P12" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>256.33559411566148</v>
       </c>
       <c r="Q12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>10.991200983327872</v>
       </c>
       <c r="R12" s="1">
-        <f>10000/P12</f>
+        <f t="shared" si="2"/>
         <v>39.011359442683904</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <f>$E$3*10000/(30*A13+20*$E$3)</f>
+        <f t="shared" si="0"/>
         <v>322.58064516129031</v>
       </c>
       <c r="C13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10.752688172043008</v>
       </c>
       <c r="H13">
@@ -4309,39 +8521,39 @@
         <v>8944.9494755341839</v>
       </c>
       <c r="I13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="M13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3671.5084389483227</v>
       </c>
       <c r="O13">
         <v>10</v>
       </c>
       <c r="P13" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>246.61293771867986</v>
       </c>
       <c r="Q13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>9.7226563969816198</v>
       </c>
       <c r="R13" s="1">
-        <f>10000/P13</f>
+        <f t="shared" si="2"/>
         <v>40.549373007377881</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <f>$E$3*10000/(30*A14+20*$E$3)</f>
+        <f t="shared" si="0"/>
         <v>312.5</v>
       </c>
       <c r="C14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10.080645161290306</v>
       </c>
       <c r="H14">
@@ -4349,39 +8561,39 @@
         <v>9590.1107658567653</v>
       </c>
       <c r="I14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="M14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3909.4391047431891</v>
       </c>
       <c r="O14">
         <v>11</v>
       </c>
       <c r="P14" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>237.9306657948664</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8.6822719238134596</v>
       </c>
       <c r="R14" s="1">
-        <f>10000/P14</f>
+        <f t="shared" si="2"/>
         <v>42.029050633689941</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <f>$E$3*10000/(30*A15+20*$E$3)</f>
+        <f t="shared" si="0"/>
         <v>303.030303030303</v>
       </c>
       <c r="C15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.4696969696969973</v>
       </c>
       <c r="H15">
@@ -4389,39 +8601,39 @@
         <v>10215.110765856765</v>
       </c>
       <c r="I15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="M15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4139.5535644913252</v>
       </c>
       <c r="O15">
         <v>12</v>
       </c>
       <c r="P15" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>230.11445974813614</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7.8162060467302581</v>
       </c>
       <c r="R15" s="1">
-        <f>10000/P15</f>
+        <f t="shared" si="2"/>
         <v>43.456634628459057</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <f>$E$3*10000/(30*A16+20*$E$3)</f>
+        <f t="shared" si="0"/>
         <v>294.11764705882354</v>
       </c>
       <c r="C16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8.9126559714794666</v>
       </c>
       <c r="H16">
@@ -4429,39 +8641,39 @@
         <v>10821.171371917371</v>
       </c>
       <c r="I16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="M16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4362.5820526050456</v>
       </c>
       <c r="O16">
         <v>13</v>
       </c>
       <c r="P16" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>223.02848811372041</v>
       </c>
       <c r="Q16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7.0859716344157277</v>
       </c>
       <c r="R16" s="1">
-        <f>10000/P16</f>
+        <f t="shared" si="2"/>
         <v>44.837321386948027</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <f>$E$3*10000/(30*A17+20*$E$3)</f>
+        <f t="shared" si="0"/>
         <v>285.71428571428572</v>
       </c>
       <c r="C17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8.4033613445378137</v>
       </c>
       <c r="H17">
@@ -4469,39 +8681,39 @@
         <v>11409.406666035018</v>
       </c>
       <c r="I17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="M17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4579.147150203692</v>
       </c>
       <c r="O17">
         <v>14</v>
       </c>
       <c r="P17" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>216.56509759864639</v>
       </c>
       <c r="Q17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6.4633905150740247</v>
       </c>
       <c r="R17" s="1">
-        <f>10000/P17</f>
+        <f t="shared" si="2"/>
         <v>46.175492315630194</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <f>$E$3*10000/(30*A18+20*$E$3)</f>
+        <f t="shared" si="0"/>
         <v>277.77777777777777</v>
       </c>
       <c r="C18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.9365079365079509</v>
       </c>
       <c r="H18">
@@ -4509,39 +8721,39 @@
         <v>11980.835237463589</v>
       </c>
       <c r="I18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="M18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4789.7848472108935</v>
       </c>
       <c r="O18">
         <v>15</v>
       </c>
       <c r="P18" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>210.6376970072015</v>
       </c>
       <c r="Q18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5.9274005914448935</v>
       </c>
       <c r="R18" s="1">
-        <f>10000/P18</f>
+        <f t="shared" si="2"/>
         <v>47.474882901222138</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <f>$E$3*10000/(30*A19+20*$E$3)</f>
+        <f t="shared" si="0"/>
         <v>270.27027027027026</v>
       </c>
       <c r="C19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.5075075075075119</v>
       </c>
       <c r="H19">
@@ -4549,39 +8761,39 @@
         <v>12536.390793019144</v>
       </c>
       <c r="I19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="M19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4994.9605727910675</v>
       </c>
       <c r="O19">
         <v>16</v>
       </c>
       <c r="P19" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>205.175725580174</v>
       </c>
       <c r="Q19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5.4619714270274926</v>
       </c>
       <c r="R19" s="1">
-        <f>10000/P19</f>
+        <f t="shared" si="2"/>
         <v>48.73870908326542</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20" s="1">
-        <f>$E$3*10000/(30*A20+20*$E$3)</f>
+        <f t="shared" si="0"/>
         <v>263.15789473684208</v>
       </c>
       <c r="C20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.1123755334281782</v>
       </c>
       <c r="H20">
@@ -4589,39 +8801,39 @@
         <v>13076.931333559683</v>
       </c>
       <c r="I20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="M20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5195.0815922283191</v>
       </c>
       <c r="O20">
         <v>17</v>
       </c>
       <c r="P20" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>200.12101943725156</v>
       </c>
       <c r="Q20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5.0547061429224414</v>
       </c>
       <c r="R20" s="1">
-        <f>10000/P20</f>
+        <f t="shared" si="2"/>
         <v>49.969763436746454</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21" s="1">
-        <f>$E$3*10000/(30*A21+20*$E$3)</f>
+        <f t="shared" si="0"/>
         <v>256.41025641025641</v>
       </c>
       <c r="C21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.7476383265856725</v>
       </c>
       <c r="H21">
@@ -4629,39 +8841,39 @@
         <v>13603.247123033369</v>
       </c>
       <c r="I21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="M21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5390.5067305704133</v>
       </c>
       <c r="O21">
         <v>18</v>
       </c>
       <c r="P21" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>195.42513834209421</v>
       </c>
       <c r="Q21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4.6958810951573469</v>
       </c>
       <c r="R21" s="1">
-        <f>10000/P21</f>
+        <f t="shared" si="2"/>
         <v>51.170489553369904</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22" s="1">
-        <f>$E$3*10000/(30*A22+20*$E$3)</f>
+        <f t="shared" si="0"/>
         <v>250</v>
       </c>
       <c r="C22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.4102564102564088</v>
       </c>
       <c r="H22">
@@ -4669,39 +8881,39 @@
         <v>14116.067635853882</v>
       </c>
       <c r="I22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="M22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5581.5540966910694</v>
       </c>
       <c r="O22">
         <v>19</v>
       </c>
       <c r="P22" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>191.04736612065608</v>
       </c>
       <c r="Q22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4.3777722214381356</v>
       </c>
       <c r="R22" s="1">
-        <f>10000/P22</f>
+        <f t="shared" si="2"/>
         <v>52.343040383422476</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23" s="1">
-        <f>$E$3*10000/(30*A23+20*$E$3)</f>
+        <f t="shared" si="0"/>
         <v>243.90243902439025</v>
       </c>
       <c r="C23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.0975609756097526</v>
       </c>
       <c r="H23">
@@ -4709,39 +8921,39 @@
         <v>14616.067635853882</v>
       </c>
       <c r="I23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
       <c r="M23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5768.5072892859089</v>
       </c>
       <c r="O23">
         <v>20</v>
       </c>
       <c r="P23" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>186.95319259483949</v>
       </c>
       <c r="Q23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4.0941735258165863</v>
       </c>
       <c r="R23" s="1">
-        <f>10000/P23</f>
+        <f t="shared" si="2"/>
         <v>53.489324580146445</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24" s="1">
-        <f>$E$3*10000/(30*A24+20*$E$3)</f>
+        <f t="shared" si="0"/>
         <v>238.0952380952381</v>
       </c>
       <c r="C24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5.8072009291521454</v>
       </c>
       <c r="H24">
@@ -4749,39 +8961,39 @@
         <v>15103.872513902663</v>
       </c>
       <c r="I24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="M24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5951.6204348319634</v>
       </c>
       <c r="O24">
         <v>21</v>
       </c>
       <c r="P24" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>183.11314554605451</v>
       </c>
       <c r="Q24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.8400470487849816</v>
       </c>
       <c r="R24" s="1">
-        <f>10000/P24</f>
+        <f t="shared" si="2"/>
         <v>54.611043735715384</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25" s="1">
-        <f>$E$3*10000/(30*A25+20*$E$3)</f>
+        <f t="shared" si="0"/>
         <v>232.55813953488371</v>
       </c>
       <c r="C25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5.5370985603543943</v>
       </c>
       <c r="H25">
@@ -4789,39 +9001,39 @@
         <v>15580.06299009314</v>
       </c>
       <c r="I25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
       <c r="M25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6131.122315862438</v>
       </c>
       <c r="O25">
         <v>22</v>
       </c>
       <c r="P25" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>179.50188103047458</v>
       </c>
       <c r="Q25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.6112645155799328</v>
       </c>
       <c r="R25" s="1">
-        <f>10000/P25</f>
+        <f t="shared" si="2"/>
         <v>55.709722608991875</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26" s="1">
-        <f>$E$3*10000/(30*A26+20*$E$3)</f>
+        <f t="shared" si="0"/>
         <v>227.27272727272728</v>
       </c>
       <c r="C26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5.2854122621564272</v>
       </c>
       <c r="H26">
@@ -4829,39 +9041,39 @@
         <v>16045.179269162907</v>
       </c>
       <c r="I26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="M26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6307.2197828951339</v>
       </c>
       <c r="O26">
         <v>23</v>
       </c>
       <c r="P26" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>176.09746703269593</v>
       </c>
       <c r="Q26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.4044139977786472</v>
       </c>
       <c r="R26" s="1">
-        <f>10000/P26</f>
+        <f t="shared" si="2"/>
         <v>56.786733895174685</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="B27" s="1">
-        <f>$E$3*10000/(30*A27+20*$E$3)</f>
+        <f t="shared" si="0"/>
         <v>222.22222222222223</v>
       </c>
       <c r="C27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5.0505050505050519</v>
       </c>
       <c r="H27">
@@ -4869,39 +9081,39 @@
         <v>16499.724723708361</v>
       </c>
       <c r="I27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="M27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6480.1005965344548</v>
       </c>
       <c r="O27">
         <v>24</v>
       </c>
       <c r="P27" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>172.88081363932088</v>
       </c>
       <c r="Q27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.2166533933750543</v>
       </c>
       <c r="R27" s="1">
-        <f>10000/P27</f>
+        <f t="shared" si="2"/>
         <v>57.843318697370762</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="B28" s="1">
-        <f>$E$3*10000/(30*A28+20*$E$3)</f>
+        <f t="shared" si="0"/>
         <v>217.39130434782609</v>
       </c>
       <c r="C28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4.8309178743961354</v>
       </c>
       <c r="H28">
@@ -4909,39 +9121,39 @@
         <v>16944.169168152806</v>
       </c>
       <c r="I28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="M28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6649.9358120744573</v>
       </c>
       <c r="O28">
         <v>25</v>
       </c>
       <c r="P28" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>169.83521554000254</v>
       </c>
       <c r="Q28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.0455980993183402</v>
       </c>
       <c r="R28" s="1">
-        <f>10000/P28</f>
+        <f t="shared" si="2"/>
         <v>58.880603579206614</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="B29" s="1">
-        <f>$E$3*10000/(30*A29+20*$E$3)</f>
+        <f t="shared" si="0"/>
         <v>212.7659574468085</v>
       </c>
       <c r="C29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4.6253469010175934</v>
       </c>
       <c r="H29">
@@ -4949,39 +9161,39 @@
         <v>17378.951776848458</v>
       </c>
       <c r="I29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="M29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6816.8817936353489</v>
       </c>
       <c r="O29">
         <v>26</v>
       </c>
       <c r="P29" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>166.9459815608916</v>
       </c>
       <c r="Q29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.8892339791109407</v>
       </c>
       <c r="R29" s="1">
-        <f>10000/P29</f>
+        <f t="shared" si="2"/>
         <v>59.899614872446733</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
       <c r="B30" s="1">
-        <f>$E$3*10000/(30*A30+20*$E$3)</f>
+        <f t="shared" si="0"/>
         <v>208.33333333333334</v>
       </c>
       <c r="C30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4.4326241134751569</v>
       </c>
       <c r="H30">
@@ -4989,39 +9201,39 @@
         <v>17804.483691742076</v>
       </c>
       <c r="I30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="M30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6981.0819259299251</v>
       </c>
       <c r="O30">
         <v>27</v>
       </c>
       <c r="P30" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>164.20013229457618</v>
       </c>
       <c r="Q30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.7458492663154175</v>
       </c>
       <c r="R30" s="1">
-        <f>10000/P30</f>
+        <f t="shared" si="2"/>
         <v>60.90129076181212</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="B31" s="1">
-        <f>$E$3*10000/(30*A31+20*$E$3)</f>
+        <f t="shared" si="0"/>
         <v>204.08163265306123</v>
       </c>
       <c r="C31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4.2517006802721085</v>
       </c>
       <c r="H31">
@@ -5029,39 +9241,39 @@
         <v>18221.150358408744</v>
       </c>
       <c r="I31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
       <c r="M31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7142.6680774250235</v>
       </c>
       <c r="O31">
         <v>28</v>
       </c>
       <c r="P31" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>161.58615149509842</v>
       </c>
       <c r="Q31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.6139807994777584</v>
       </c>
       <c r="R31" s="1">
-        <f>10000/P31</f>
+        <f t="shared" si="2"/>
         <v>61.886491555579511</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="B32" s="1">
-        <f>$E$3*10000/(30*A32+20*$E$3)</f>
+        <f t="shared" si="0"/>
         <v>200</v>
       </c>
       <c r="C32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4.0816326530612344</v>
       </c>
       <c r="H32">
@@ -5069,39 +9281,39 @@
         <v>18629.313623714868</v>
       </c>
       <c r="I32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="M32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7301.7618577060266</v>
       </c>
       <c r="O32">
         <v>29</v>
       </c>
       <c r="P32" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>159.09378028100309</v>
       </c>
       <c r="Q32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.4923712140953285</v>
       </c>
       <c r="R32" s="1">
-        <f>10000/P32</f>
+        <f t="shared" si="2"/>
         <v>62.856008464550072</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
       <c r="B33" s="1">
-        <f>$E$3*10000/(30*A33+20*$E$3)</f>
+        <f t="shared" si="0"/>
         <v>196.07843137254903</v>
       </c>
       <c r="C33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.9215686274509665</v>
       </c>
       <c r="H33">
@@ -5109,39 +9321,39 @@
         <v>19029.313623714868</v>
       </c>
       <c r="I33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>50.999999999999993</v>
       </c>
       <c r="M33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7458.475703395995</v>
       </c>
       <c r="O33">
         <v>30</v>
       </c>
       <c r="P33" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>156.71384568996837</v>
       </c>
       <c r="Q33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.3799345910347256</v>
       </c>
       <c r="R33" s="1">
-        <f>10000/P33</f>
+        <f t="shared" si="2"/>
         <v>63.81057114623615</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
       <c r="B34" s="1">
-        <f>$E$3*10000/(30*A34+20*$E$3)</f>
+        <f t="shared" si="0"/>
         <v>192.30769230769232</v>
       </c>
       <c r="C34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.7707390648567127</v>
       </c>
       <c r="H34">
@@ -5149,39 +9361,39 @@
         <v>19421.470486459966</v>
       </c>
       <c r="I34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>52</v>
       </c>
       <c r="M34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7612.9138203969778</v>
       </c>
       <c r="O34">
         <v>31</v>
       </c>
       <c r="P34" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>154.43811700098286</v>
       </c>
       <c r="Q34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.2757286889855095</v>
       </c>
       <c r="R34" s="1">
-        <f>10000/P34</f>
+        <f t="shared" si="2"/>
         <v>64.750854220375913</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
       <c r="B35" s="1">
-        <f>$E$3*10000/(30*A35+20*$E$3)</f>
+        <f t="shared" si="0"/>
         <v>188.67924528301887</v>
       </c>
       <c r="C35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.6284470246734486</v>
       </c>
       <c r="H35">
@@ -5189,39 +9401,39 @@
         <v>19806.085871075349</v>
       </c>
       <c r="I35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="M35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7765.1730050526694</v>
       </c>
       <c r="O35">
         <v>32</v>
       </c>
       <c r="P35" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>152.25918465569157</v>
       </c>
       <c r="Q35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.1789323452912868</v>
       </c>
       <c r="R35" s="1">
-        <f>10000/P35</f>
+        <f t="shared" si="2"/>
         <v>65.677482922382069</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
       <c r="B36" s="1">
-        <f>$E$3*10000/(30*A36+20*$E$3)</f>
+        <f t="shared" si="0"/>
         <v>185.18518518518519</v>
       </c>
       <c r="C36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.4940600978336818</v>
       </c>
       <c r="H36">
@@ -5229,412 +9441,686 @@
         <v>20183.444361641388</v>
       </c>
       <c r="I36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="M36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7915.343362743256</v>
       </c>
       <c r="O36">
         <v>33</v>
       </c>
       <c r="P36" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>150.17035769058657</v>
       </c>
       <c r="Q36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.0888269651049995</v>
       </c>
       <c r="R36" s="1">
-        <f>10000/P36</f>
+        <f t="shared" si="2"/>
         <v>66.591038030315957</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
       <c r="B37" s="1"/>
       <c r="M37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8063.5089391659458</v>
       </c>
       <c r="O37">
         <v>34</v>
       </c>
       <c r="P37" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>148.16557642268981</v>
       </c>
       <c r="Q37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.0047812678967603</v>
       </c>
       <c r="R37" s="1">
-        <f>10000/P37</f>
+        <f t="shared" si="2"/>
         <v>67.492060176459574</v>
       </c>
+      <c r="V37" t="s">
+        <v>14</v>
+      </c>
+      <c r="W37">
+        <v>30000</v>
+      </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
       <c r="B38" s="1"/>
       <c r="M38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8209.7482769418457</v>
       </c>
       <c r="O38">
         <v>35</v>
       </c>
       <c r="P38" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>146.23933777589991</v>
       </c>
       <c r="Q38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.9262386467898978</v>
       </c>
       <c r="R38" s="1">
-        <f t="shared" ref="R38:R53" si="5">10000/P38</f>
+        <f t="shared" ref="R38:R53" si="7">10000/P38</f>
         <v>68.381053634995254</v>
       </c>
+      <c r="V38" t="s">
+        <v>15</v>
+      </c>
+      <c r="W38">
+        <v>74</v>
+      </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
       <c r="B39" s="1"/>
       <c r="M39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8354.1349080805412</v>
       </c>
       <c r="O39">
         <v>36</v>
       </c>
       <c r="P39" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>144.38663113869552</v>
       </c>
       <c r="Q39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.8527066372043919</v>
       </c>
       <c r="R39" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>69.258489661651282</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
       <c r="B40" s="1"/>
       <c r="M40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8496.7377911207641</v>
       </c>
       <c r="O40">
         <v>37</v>
       </c>
       <c r="P40" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>142.60288304022288</v>
       </c>
       <c r="Q40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.7837480984726426</v>
       </c>
       <c r="R40" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>70.124809448483433</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
       <c r="B41" s="1"/>
       <c r="M41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8637.6217003663714</v>
       </c>
       <c r="O41">
         <v>38</v>
       </c>
       <c r="P41" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>140.88390924560736</v>
       </c>
       <c r="Q41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.7189737946155219</v>
       </c>
       <c r="R41" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>70.98042674672439</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
       <c r="B42" s="1"/>
       <c r="M42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8776.8475734880067</v>
       </c>
       <c r="O42">
         <v>39</v>
       </c>
       <c r="P42" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>139.22587312163523</v>
       </c>
       <c r="Q42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.6580361239721242</v>
       </c>
       <c r="R42" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>71.825730202197846</v>
       </c>
+      <c r="U42" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="V42" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="W42" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="X42" s="10" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
       <c r="B43" s="1"/>
       <c r="M43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8914.472822812555</v>
       </c>
       <c r="O43">
         <v>40</v>
       </c>
       <c r="P43" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>137.62524932454835</v>
       </c>
       <c r="Q43">
+        <f t="shared" si="6"/>
+        <v>1.6006237970868824</v>
+      </c>
+      <c r="R43" s="1">
+        <f t="shared" si="7"/>
+        <v>72.661085440927806</v>
+      </c>
+      <c r="T43">
+        <f>$M$41+V43</f>
+        <v>8637.6217003663714</v>
+      </c>
+      <c r="U43">
+        <v>0</v>
+      </c>
+      <c r="V43" s="9">
+        <v>0</v>
+      </c>
+      <c r="W43" s="9">
+        <f>V44-V43</f>
+        <v>135.13513513513513</v>
+      </c>
+      <c r="X43">
+        <f>10000/W43</f>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="M44">
         <f t="shared" si="4"/>
-        <v>1.6006237970868824</v>
-      </c>
-      <c r="R43" s="1">
-        <f t="shared" si="5"/>
-        <v>72.661085440927806</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="M44">
-        <f t="shared" si="2"/>
         <v>9050.5516148360839</v>
       </c>
       <c r="O44">
         <v>41</v>
       </c>
       <c r="P44" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>136.07879202352888</v>
       </c>
       <c r="Q44">
+        <f t="shared" si="6"/>
+        <v>1.5464573010194727</v>
+      </c>
+      <c r="R44" s="1">
+        <f t="shared" si="7"/>
+        <v>73.486836936875051</v>
+      </c>
+      <c r="T44">
+        <f t="shared" ref="T44:T55" si="8">$M$41+V44</f>
+        <v>8772.7568355015064</v>
+      </c>
+      <c r="U44">
+        <v>1</v>
+      </c>
+      <c r="V44" s="7">
+        <f>10000/(-$W$37*10^-6*V43+$W$38)+V43</f>
+        <v>135.13513513513513</v>
+      </c>
+      <c r="W44" s="7">
+        <f t="shared" ref="W44:W55" si="9">V45-V44</f>
+        <v>142.967542503864</v>
+      </c>
+      <c r="X44">
+        <f t="shared" ref="X44:X55" si="10">10000/W44</f>
+        <v>69.945945945945937</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="M45">
         <f t="shared" si="4"/>
-        <v>1.5464573010194727</v>
-      </c>
-      <c r="R44" s="1">
-        <f t="shared" si="5"/>
-        <v>73.486836936875051</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="M45">
-        <f t="shared" si="2"/>
         <v>9185.135121840729</v>
       </c>
       <c r="O45">
         <v>42</v>
       </c>
       <c r="P45" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>134.58350700464507</v>
       </c>
       <c r="Q45">
+        <f t="shared" si="6"/>
+        <v>1.4952850188838056</v>
+      </c>
+      <c r="R45" s="1">
+        <f t="shared" si="7"/>
+        <v>74.303309689016018</v>
+      </c>
+      <c r="T45">
+        <f t="shared" si="8"/>
+        <v>8915.7243780053705</v>
+      </c>
+      <c r="U45">
+        <v>2</v>
+      </c>
+      <c r="V45" s="7">
+        <f t="shared" ref="V45:V55" si="11">10000/(-$W$37*10^-6*V44+$W$38)+V44</f>
+        <v>278.10267763899913</v>
+      </c>
+      <c r="W45" s="7">
+        <f t="shared" si="9"/>
+        <v>152.30687108281734</v>
+      </c>
+      <c r="X45">
+        <f t="shared" si="10"/>
+        <v>65.656919670830007</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="M46">
         <f t="shared" si="4"/>
-        <v>1.4952850188838056</v>
-      </c>
-      <c r="R45" s="1">
-        <f t="shared" si="5"/>
-        <v>74.303309689016018</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="M46">
-        <f t="shared" si="2"/>
         <v>9318.2717489476818</v>
       </c>
       <c r="O46">
         <v>43</v>
       </c>
       <c r="P46" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>133.1366271069528</v>
       </c>
       <c r="Q46">
+        <f t="shared" si="6"/>
+        <v>1.4468798976922699</v>
+      </c>
+      <c r="R46" s="1">
+        <f t="shared" si="7"/>
+        <v>75.110810731044651</v>
+      </c>
+      <c r="T46">
+        <f t="shared" si="8"/>
+        <v>9068.0312490881879</v>
+      </c>
+      <c r="U46">
+        <v>3</v>
+      </c>
+      <c r="V46" s="7">
+        <f t="shared" si="11"/>
+        <v>430.40954872181646</v>
+      </c>
+      <c r="W46" s="7">
+        <f t="shared" si="9"/>
+        <v>163.69903898470318</v>
+      </c>
+      <c r="X46">
+        <f t="shared" si="10"/>
+        <v>61.087713538345497</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="M47">
         <f t="shared" si="4"/>
-        <v>1.4468798976922699</v>
-      </c>
-      <c r="R46" s="1">
-        <f t="shared" si="5"/>
-        <v>75.110810731044651</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="M47">
-        <f t="shared" si="2"/>
         <v>9450.0073394776846</v>
       </c>
       <c r="O47">
         <v>44</v>
       </c>
       <c r="P47" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>131.73559053000281</v>
       </c>
       <c r="Q47">
+        <f t="shared" si="6"/>
+        <v>1.4010365769499913</v>
+      </c>
+      <c r="R47" s="1">
+        <f t="shared" si="7"/>
+        <v>75.909630493685739</v>
+      </c>
+      <c r="T47">
+        <f t="shared" si="8"/>
+        <v>9231.7302880728912</v>
+      </c>
+      <c r="U47">
+        <v>4</v>
+      </c>
+      <c r="V47" s="7">
+        <f t="shared" si="11"/>
+        <v>594.10858770651964</v>
+      </c>
+      <c r="W47" s="7">
+        <f t="shared" si="9"/>
+        <v>178.00960999748384</v>
+      </c>
+      <c r="X47">
+        <f t="shared" si="10"/>
+        <v>56.176742368804412</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="M48">
         <f t="shared" si="4"/>
-        <v>1.4010365769499913</v>
-      </c>
-      <c r="R47" s="1">
-        <f t="shared" si="5"/>
-        <v>75.909630493685739</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="M48">
-        <f t="shared" si="2"/>
         <v>9580.3853611016802</v>
       </c>
       <c r="O48">
         <v>45</v>
       </c>
       <c r="P48" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>130.37802162399566</v>
       </c>
       <c r="Q48">
+        <f t="shared" si="6"/>
+        <v>1.3575689060071454</v>
+      </c>
+      <c r="R48" s="1">
+        <f t="shared" si="7"/>
+        <v>76.700044036866501</v>
+      </c>
+      <c r="T48">
+        <f t="shared" si="8"/>
+        <v>9409.7398980703747</v>
+      </c>
+      <c r="U48">
+        <v>5</v>
+      </c>
+      <c r="V48" s="7">
+        <f t="shared" si="11"/>
+        <v>772.11819770400348</v>
+      </c>
+      <c r="W48" s="7">
+        <f t="shared" si="9"/>
+        <v>196.70923519666985</v>
+      </c>
+      <c r="X48">
+        <f t="shared" si="10"/>
+        <v>50.836454068879895</v>
+      </c>
+    </row>
+    <row r="49" spans="13:24" x14ac:dyDescent="0.25">
+      <c r="M49">
         <f t="shared" si="4"/>
-        <v>1.3575689060071454</v>
-      </c>
-      <c r="R48" s="1">
-        <f t="shared" si="5"/>
-        <v>76.700044036866501</v>
-      </c>
-    </row>
-    <row r="49" spans="13:18" x14ac:dyDescent="0.35">
-      <c r="M49">
-        <f t="shared" si="2"/>
         <v>9709.4470749351167</v>
       </c>
       <c r="O49">
         <v>46</v>
       </c>
       <c r="P49" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>129.06171383343644</v>
       </c>
       <c r="Q49">
+        <f t="shared" si="6"/>
+        <v>1.3163077905592218</v>
+      </c>
+      <c r="R49" s="1">
+        <f t="shared" si="7"/>
+        <v>77.482312166609915</v>
+      </c>
+      <c r="T49">
+        <f t="shared" si="8"/>
+        <v>9606.4491332670441</v>
+      </c>
+      <c r="U49">
+        <v>6</v>
+      </c>
+      <c r="V49" s="7">
+        <f t="shared" si="11"/>
+        <v>968.82743290067333</v>
+      </c>
+      <c r="W49" s="7">
+        <f t="shared" si="9"/>
+        <v>222.54279753057244</v>
+      </c>
+      <c r="X49">
+        <f t="shared" si="10"/>
+        <v>44.935177012979814</v>
+      </c>
+    </row>
+    <row r="50" spans="13:24" x14ac:dyDescent="0.25">
+      <c r="M50">
         <f t="shared" si="4"/>
-        <v>1.3163077905592218</v>
-      </c>
-      <c r="R49" s="1">
-        <f t="shared" si="5"/>
-        <v>77.482312166609915</v>
-      </c>
-    </row>
-    <row r="50" spans="13:18" x14ac:dyDescent="0.35">
-      <c r="M50">
-        <f t="shared" si="2"/>
         <v>9837.2316894495252</v>
       </c>
       <c r="O50">
         <v>47</v>
       </c>
       <c r="P50" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>127.78461451440853</v>
       </c>
       <c r="Q50">
+        <f t="shared" si="6"/>
+        <v>1.2770993190279114</v>
+      </c>
+      <c r="R50" s="1">
+        <f t="shared" si="7"/>
+        <v>78.256682449610835</v>
+      </c>
+      <c r="T50">
+        <f t="shared" si="8"/>
+        <v>9828.9919307976179</v>
+      </c>
+      <c r="U50">
+        <v>7</v>
+      </c>
+      <c r="V50" s="7">
+        <f t="shared" si="11"/>
+        <v>1191.3702304312458</v>
+      </c>
+      <c r="W50" s="7">
+        <f t="shared" si="9"/>
+        <v>261.37713857125505</v>
+      </c>
+      <c r="X50">
+        <f t="shared" si="10"/>
+        <v>38.258893087062624</v>
+      </c>
+    </row>
+    <row r="51" spans="13:24" x14ac:dyDescent="0.25">
+      <c r="M51">
         <f t="shared" si="4"/>
-        <v>1.2770993190279114</v>
-      </c>
-      <c r="R50" s="1">
-        <f t="shared" si="5"/>
-        <v>78.256682449610835</v>
-      </c>
-    </row>
-    <row r="51" spans="13:18" x14ac:dyDescent="0.35">
-      <c r="M51">
-        <f t="shared" si="2"/>
         <v>9963.7765008364022</v>
       </c>
       <c r="O51">
         <v>48</v>
       </c>
       <c r="P51" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>126.54481138687697</v>
       </c>
       <c r="Q51">
+        <f t="shared" si="6"/>
+        <v>1.2398031275315589</v>
+      </c>
+      <c r="R51" s="1">
+        <f t="shared" si="7"/>
+        <v>79.023390136697671</v>
+      </c>
+      <c r="T51">
+        <f t="shared" si="8"/>
+        <v>10090.369069368873</v>
+      </c>
+      <c r="U51">
+        <v>8</v>
+      </c>
+      <c r="V51" s="7">
+        <f t="shared" si="11"/>
+        <v>1452.7473690025008</v>
+      </c>
+      <c r="W51" s="7">
+        <f t="shared" si="9"/>
+        <v>328.75726312859001</v>
+      </c>
+      <c r="X51">
+        <f t="shared" si="10"/>
+        <v>30.417578929924975</v>
+      </c>
+    </row>
+    <row r="52" spans="13:24" x14ac:dyDescent="0.25">
+      <c r="M52">
         <f t="shared" si="4"/>
-        <v>1.2398031275315589</v>
-      </c>
-      <c r="R51" s="1">
-        <f t="shared" si="5"/>
-        <v>79.023390136697671</v>
-      </c>
-    </row>
-    <row r="52" spans="13:18" x14ac:dyDescent="0.35">
-      <c r="M52">
-        <f t="shared" si="2"/>
         <v>10089.11702125414</v>
       </c>
       <c r="O52">
         <v>49</v>
       </c>
       <c r="P52" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>125.34052041773793</v>
       </c>
       <c r="Q52">
+        <f t="shared" si="6"/>
+        <v>1.2042909691390378</v>
+      </c>
+      <c r="R52" s="1">
+        <f t="shared" si="7"/>
+        <v>79.782659005018942</v>
+      </c>
+      <c r="T52">
+        <f t="shared" si="8"/>
+        <v>10419.126332497462</v>
+      </c>
+      <c r="U52">
+        <v>9</v>
+      </c>
+      <c r="V52" s="7">
+        <f t="shared" si="11"/>
+        <v>1781.5046321310908</v>
+      </c>
+      <c r="W52" s="7">
+        <f t="shared" si="9"/>
+        <v>486.50292417220248</v>
+      </c>
+      <c r="X52">
+        <f t="shared" si="10"/>
+        <v>20.554861036067283</v>
+      </c>
+    </row>
+    <row r="53" spans="13:24" x14ac:dyDescent="0.25">
+      <c r="M53">
         <f t="shared" si="4"/>
-        <v>1.2042909691390378</v>
-      </c>
-      <c r="R52" s="1">
-        <f t="shared" si="5"/>
-        <v>79.782659005018942</v>
-      </c>
-    </row>
-    <row r="53" spans="13:18" x14ac:dyDescent="0.35">
-      <c r="M53">
-        <f t="shared" si="2"/>
         <v>10213.287096213444</v>
       </c>
       <c r="O53">
         <v>50</v>
       </c>
       <c r="P53" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>124.17007495930375</v>
       </c>
       <c r="Q53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.1704454584341875</v>
       </c>
       <c r="R53" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>80.534702127525179</v>
+      </c>
+      <c r="T53">
+        <f t="shared" si="8"/>
+        <v>10905.629256669665</v>
+      </c>
+      <c r="U53">
+        <v>10</v>
+      </c>
+      <c r="V53" s="7">
+        <f t="shared" si="11"/>
+        <v>2268.0075563032933</v>
+      </c>
+      <c r="W53" s="7">
+        <f t="shared" si="9"/>
+        <v>1677.9161686751913</v>
+      </c>
+      <c r="X53">
+        <f t="shared" si="10"/>
+        <v>5.9597733109011992</v>
+      </c>
+    </row>
+    <row r="54" spans="13:24" x14ac:dyDescent="0.25">
+      <c r="T54">
+        <f t="shared" si="8"/>
+        <v>12583.545425344855</v>
+      </c>
+      <c r="U54">
+        <v>11</v>
+      </c>
+      <c r="V54" s="7">
+        <f t="shared" si="11"/>
+        <v>3945.9237249784846</v>
+      </c>
+      <c r="W54" s="7">
+        <f t="shared" si="9"/>
+        <v>-225.33834228497471</v>
+      </c>
+      <c r="X54">
+        <f t="shared" si="10"/>
+        <v>-44.377711749354553</v>
+      </c>
+    </row>
+    <row r="55" spans="13:24" x14ac:dyDescent="0.25">
+      <c r="T55">
+        <f t="shared" si="8"/>
+        <v>12358.207083059882</v>
+      </c>
+      <c r="U55">
+        <v>12</v>
+      </c>
+      <c r="V55" s="7">
+        <f t="shared" si="11"/>
+        <v>3720.5853826935099</v>
+      </c>
+      <c r="W55" s="7">
+        <f t="shared" si="9"/>
+        <v>-3720.5853826935099</v>
+      </c>
+      <c r="X55">
+        <f t="shared" si="10"/>
+        <v>-2.6877490962888535</v>
       </c>
     </row>
   </sheetData>

--- a/ArduinoMotorCode-Austin/Excel Stuff/Delay Calculations and Plots.xlsx
+++ b/ArduinoMotorCode-Austin/Excel Stuff/Delay Calculations and Plots.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t>Na</t>
   </si>
@@ -60,6 +60,12 @@
   </si>
   <si>
     <t>Delta Deay</t>
+  </si>
+  <si>
+    <t>t(N)</t>
+  </si>
+  <si>
+    <t>Delay</t>
   </si>
 </sst>
 </file>
@@ -503,11 +509,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="900082080"/>
-        <c:axId val="900095136"/>
+        <c:axId val="66351232"/>
+        <c:axId val="66352320"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="900082080"/>
+        <c:axId val="66351232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -564,12 +570,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="900095136"/>
+        <c:crossAx val="66352320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="900095136"/>
+        <c:axId val="66352320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -626,7 +632,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="900082080"/>
+        <c:crossAx val="66351232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1028,11 +1034,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="945212144"/>
-        <c:axId val="945210512"/>
+        <c:axId val="66355584"/>
+        <c:axId val="66356128"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="945212144"/>
+        <c:axId val="66355584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1089,12 +1095,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="945210512"/>
+        <c:crossAx val="66356128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="945210512"/>
+        <c:axId val="66356128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1151,7 +1157,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="945212144"/>
+        <c:crossAx val="66355584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1615,11 +1621,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="946877872"/>
-        <c:axId val="946883856"/>
+        <c:axId val="246486720"/>
+        <c:axId val="246482368"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="946877872"/>
+        <c:axId val="246486720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1676,12 +1682,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="946883856"/>
+        <c:crossAx val="246482368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="946883856"/>
+        <c:axId val="246482368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1738,7 +1744,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="946877872"/>
+        <c:crossAx val="246486720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3813,10 +3819,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R53"/>
+  <dimension ref="A1:AD53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F22" workbookViewId="0">
-      <selection activeCell="R25" sqref="R25"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Z2" sqref="Z2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3824,7 +3830,7 @@
     <col min="17" max="17" width="10.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -3846,13 +3852,22 @@
       <c r="Q1" t="s">
         <v>5</v>
       </c>
+      <c r="AB1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <f>$E$3*10000/(30*A2+20*$E$3)</f>
+        <f t="shared" ref="B2:B36" si="0">$E$3*10000/(30*A2+20*$E$3)</f>
         <v>500</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -3886,13 +3901,25 @@
       <c r="R2" s="5" t="s">
         <v>5</v>
       </c>
+      <c r="Z2">
+        <v>20</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <f>$E$3*10000/(30*A3+20*$E$3)</f>
+        <f t="shared" si="0"/>
         <v>476.1904761904762</v>
       </c>
       <c r="C3">
@@ -3907,7 +3934,7 @@
         <v>1000</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I36" si="0">10000/B3</f>
+        <f t="shared" ref="I3:I36" si="1">10000/B3</f>
         <v>21</v>
       </c>
       <c r="L3" t="s">
@@ -3925,20 +3952,33 @@
         <v>500</v>
       </c>
       <c r="R3" s="1">
-        <f>10000/P3</f>
+        <f t="shared" ref="R3:R37" si="2">10000/P3</f>
         <v>20</v>
       </c>
+      <c r="AA3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB3">
+        <v>4000</v>
+      </c>
+      <c r="AC3">
+        <v>1</v>
+      </c>
+      <c r="AD3">
+        <f>AB3-AB2</f>
+        <v>4000</v>
+      </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <f>$E$3*10000/(30*A4+20*$E$3)</f>
+        <f t="shared" si="0"/>
         <v>454.54545454545456</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C36" si="1">B3-B4</f>
+        <f t="shared" ref="C4:C36" si="3">B3-B4</f>
         <v>21.645021645021643</v>
       </c>
       <c r="H4">
@@ -3946,21 +3986,21 @@
         <v>1952.3809523809523</v>
       </c>
       <c r="I4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="L4" t="s">
         <v>9</v>
       </c>
       <c r="M4">
-        <f t="shared" ref="M4:M53" si="2">10000/(6000*10^-6*M3+20)+M3</f>
+        <f t="shared" ref="M4:M53" si="4">10000/(6000*10^-6*M3+20)+M3</f>
         <v>934.78260869565224</v>
       </c>
       <c r="O4">
         <v>1</v>
       </c>
       <c r="P4" s="7">
-        <f t="shared" ref="P4:P53" si="3">M4-M3</f>
+        <f t="shared" ref="P4:P53" si="5">M4-M3</f>
         <v>434.78260869565224</v>
       </c>
       <c r="Q4">
@@ -3968,20 +4008,31 @@
         <v>65.217391304347757</v>
       </c>
       <c r="R4" s="1">
-        <f>10000/P4</f>
+        <f t="shared" si="2"/>
         <v>22.999999999999996</v>
       </c>
+      <c r="AB4">
+        <f>4688/(25*10^-6*AB3+$Z$2)+AB3</f>
+        <v>4233.2338308457711</v>
+      </c>
+      <c r="AC4">
+        <v>2</v>
+      </c>
+      <c r="AD4">
+        <f t="shared" ref="AD4:AD37" si="6">AB4-AB3</f>
+        <v>233.23383084577108</v>
+      </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <f>$E$3*10000/(30*A5+20*$E$3)</f>
+        <f t="shared" si="0"/>
         <v>434.78260869565219</v>
       </c>
       <c r="C5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>19.762845849802375</v>
       </c>
       <c r="H5">
@@ -3989,39 +4040,50 @@
         <v>2861.4718614718613</v>
       </c>
       <c r="I5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="M5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1325.2749686277405</v>
       </c>
       <c r="O5">
         <v>2</v>
       </c>
       <c r="P5" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>390.49235993208822</v>
       </c>
       <c r="Q5">
-        <f t="shared" ref="Q5:Q53" si="4">P4-P5</f>
+        <f t="shared" ref="Q5:Q53" si="7">P4-P5</f>
         <v>44.290248763564023</v>
       </c>
       <c r="R5" s="1">
-        <f>10000/P5</f>
+        <f t="shared" si="2"/>
         <v>25.608695652173918</v>
       </c>
+      <c r="AB5">
+        <f t="shared" ref="AB5:AB37" si="8">4688/(25*10^-6*AB4+$Z$2)+AB4</f>
+        <v>4466.4000220845692</v>
+      </c>
+      <c r="AC5">
+        <v>3</v>
+      </c>
+      <c r="AD5">
+        <f t="shared" si="6"/>
+        <v>233.16619123879809</v>
+      </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <f>$E$3*10000/(30*A6+20*$E$3)</f>
+        <f t="shared" si="0"/>
         <v>416.66666666666669</v>
       </c>
       <c r="C6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>18.115942028985501</v>
       </c>
       <c r="H6">
@@ -4029,39 +4091,50 @@
         <v>3731.0370788631658</v>
       </c>
       <c r="I6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="M6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1683.0356041302084</v>
       </c>
       <c r="O6">
         <v>3</v>
       </c>
       <c r="P6" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>357.76063550246795</v>
       </c>
       <c r="Q6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>32.731724429620272</v>
       </c>
       <c r="R6" s="1">
-        <f>10000/P6</f>
+        <f t="shared" si="2"/>
         <v>27.95164981176644</v>
       </c>
+      <c r="AB6">
+        <f t="shared" si="8"/>
+        <v>4699.4986325359841</v>
+      </c>
+      <c r="AC6">
+        <v>4</v>
+      </c>
+      <c r="AD6">
+        <f t="shared" si="6"/>
+        <v>233.09861045141497</v>
+      </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <f>$E$3*10000/(30*A7+20*$E$3)</f>
+        <f t="shared" si="0"/>
         <v>400</v>
       </c>
       <c r="C7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>16.666666666666686</v>
       </c>
       <c r="H7">
@@ -4069,39 +4142,50 @@
         <v>4564.3704121964993</v>
       </c>
       <c r="I7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="M7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2015.2812358698457</v>
       </c>
       <c r="O7">
         <v>4</v>
       </c>
       <c r="P7" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>332.24563173963725</v>
       </c>
       <c r="Q7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>25.515003762830702</v>
       </c>
       <c r="R7" s="1">
-        <f>10000/P7</f>
+        <f t="shared" si="2"/>
         <v>30.098213624781238</v>
       </c>
+      <c r="AB7">
+        <f t="shared" si="8"/>
+        <v>4932.5297209344008</v>
+      </c>
+      <c r="AC7">
+        <v>5</v>
+      </c>
+      <c r="AD7">
+        <f t="shared" si="6"/>
+        <v>233.03108839841661</v>
+      </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <f>$E$3*10000/(30*A8+20*$E$3)</f>
+        <f t="shared" si="0"/>
         <v>384.61538461538464</v>
       </c>
       <c r="C8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>15.384615384615358</v>
       </c>
       <c r="H8">
@@ -4109,39 +4193,50 @@
         <v>5364.3704121964993</v>
       </c>
       <c r="I8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="M8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2326.8884091111513</v>
       </c>
       <c r="O8">
         <v>5</v>
       </c>
       <c r="P8" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>311.60717324130565</v>
       </c>
       <c r="Q8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>20.638458498331602</v>
       </c>
       <c r="R8" s="1">
-        <f>10000/P8</f>
+        <f t="shared" si="2"/>
         <v>32.091687415219077</v>
       </c>
+      <c r="AB8">
+        <f t="shared" si="8"/>
+        <v>5165.4933459291715</v>
+      </c>
+      <c r="AC8">
+        <v>6</v>
+      </c>
+      <c r="AD8">
+        <f t="shared" si="6"/>
+        <v>232.96362499477073</v>
+      </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <f>$E$3*10000/(30*A9+20*$E$3)</f>
+        <f t="shared" si="0"/>
         <v>370.37037037037038</v>
       </c>
       <c r="C9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>14.245014245014261</v>
       </c>
       <c r="H9">
@@ -4149,39 +4244,50 @@
         <v>6133.6011814272688</v>
       </c>
       <c r="I9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="M9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2621.3409486943237</v>
       </c>
       <c r="O9">
         <v>6</v>
       </c>
       <c r="P9" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>294.45253958317244</v>
       </c>
       <c r="Q9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>17.154633658133207</v>
       </c>
       <c r="R9" s="1">
-        <f>10000/P9</f>
+        <f t="shared" si="2"/>
         <v>33.961330454666886</v>
       </c>
+      <c r="AB9">
+        <f t="shared" si="8"/>
+        <v>5398.3895660847893</v>
+      </c>
+      <c r="AC9">
+        <v>7</v>
+      </c>
+      <c r="AD9">
+        <f t="shared" si="6"/>
+        <v>232.89622015561781</v>
+      </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <f>$E$3*10000/(30*A10+20*$E$3)</f>
+        <f t="shared" si="0"/>
         <v>357.14285714285717</v>
       </c>
       <c r="C10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>13.227513227513214</v>
       </c>
       <c r="H10">
@@ -4189,39 +4295,50 @@
         <v>6874.3419221680097</v>
       </c>
       <c r="I10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27.999999999999996</v>
       </c>
       <c r="M10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2901.233112014992</v>
       </c>
       <c r="O10">
         <v>7</v>
       </c>
       <c r="P10" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>279.89216332066826</v>
       </c>
       <c r="Q10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>14.560376262504178</v>
       </c>
       <c r="R10" s="1">
-        <f>10000/P10</f>
+        <f t="shared" si="2"/>
         <v>35.728045692165914</v>
       </c>
+      <c r="AB10">
+        <f t="shared" si="8"/>
+        <v>5631.2184398810577</v>
+      </c>
+      <c r="AC10">
+        <v>8</v>
+      </c>
+      <c r="AD10">
+        <f t="shared" si="6"/>
+        <v>232.82887379626845</v>
+      </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <f>$E$3*10000/(30*A11+20*$E$3)</f>
+        <f t="shared" si="0"/>
         <v>344.82758620689657</v>
       </c>
       <c r="C11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>12.315270935960598</v>
       </c>
       <c r="H11">
@@ -4229,39 +4346,50 @@
         <v>7588.6276364537243</v>
       </c>
       <c r="I11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="M11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3168.5599071139814</v>
       </c>
       <c r="O11">
         <v>8</v>
       </c>
       <c r="P11" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>267.32679509898935</v>
       </c>
       <c r="Q11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>12.565368221678909</v>
       </c>
       <c r="R11" s="1">
-        <f>10000/P11</f>
+        <f t="shared" si="2"/>
         <v>37.407398672089961</v>
       </c>
+      <c r="AB11">
+        <f t="shared" si="8"/>
+        <v>5863.9800257132647</v>
+      </c>
+      <c r="AC11">
+        <v>9</v>
+      </c>
+      <c r="AD11">
+        <f t="shared" si="6"/>
+        <v>232.76158583220695</v>
+      </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <f>$E$3*10000/(30*A12+20*$E$3)</f>
+        <f t="shared" si="0"/>
         <v>333.33333333333331</v>
       </c>
       <c r="C12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>11.494252873563255</v>
       </c>
       <c r="H12">
@@ -4269,39 +4397,50 @@
         <v>8278.2828088675178</v>
       </c>
       <c r="I12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="M12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3424.8955012296428</v>
       </c>
       <c r="O12">
         <v>9</v>
       </c>
       <c r="P12" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>256.33559411566148</v>
       </c>
       <c r="Q12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>10.991200983327872</v>
       </c>
       <c r="R12" s="1">
-        <f>10000/P12</f>
+        <f t="shared" si="2"/>
         <v>39.011359442683904</v>
       </c>
+      <c r="AB12">
+        <f t="shared" si="8"/>
+        <v>6096.6743818923514</v>
+      </c>
+      <c r="AC12">
+        <v>10</v>
+      </c>
+      <c r="AD12">
+        <f t="shared" si="6"/>
+        <v>232.69435617908675</v>
+      </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <f>$E$3*10000/(30*A13+20*$E$3)</f>
+        <f t="shared" si="0"/>
         <v>322.58064516129031</v>
       </c>
       <c r="C13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10.752688172043008</v>
       </c>
       <c r="H13">
@@ -4309,39 +4448,50 @@
         <v>8944.9494755341839</v>
       </c>
       <c r="I13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="M13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3671.5084389483227</v>
       </c>
       <c r="O13">
         <v>10</v>
       </c>
       <c r="P13" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>246.61293771867986</v>
       </c>
       <c r="Q13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>9.7226563969816198</v>
       </c>
       <c r="R13" s="1">
-        <f>10000/P13</f>
+        <f t="shared" si="2"/>
         <v>40.549373007377881</v>
       </c>
+      <c r="AB13">
+        <f t="shared" si="8"/>
+        <v>6329.3015666450847</v>
+      </c>
+      <c r="AC13">
+        <v>11</v>
+      </c>
+      <c r="AD13">
+        <f t="shared" si="6"/>
+        <v>232.62718475273323</v>
+      </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <f>$E$3*10000/(30*A14+20*$E$3)</f>
+        <f t="shared" si="0"/>
         <v>312.5</v>
       </c>
       <c r="C14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10.080645161290306</v>
       </c>
       <c r="H14">
@@ -4349,39 +4499,50 @@
         <v>9590.1107658567653</v>
       </c>
       <c r="I14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="M14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3909.4391047431891</v>
       </c>
       <c r="O14">
         <v>11</v>
       </c>
       <c r="P14" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>237.9306657948664</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8.6822719238134596</v>
       </c>
       <c r="R14" s="1">
-        <f>10000/P14</f>
+        <f t="shared" si="2"/>
         <v>42.029050633689941</v>
       </c>
+      <c r="AB14">
+        <f t="shared" si="8"/>
+        <v>6561.8616381142238</v>
+      </c>
+      <c r="AC14">
+        <v>12</v>
+      </c>
+      <c r="AD14">
+        <f t="shared" si="6"/>
+        <v>232.56007146913907</v>
+      </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <f>$E$3*10000/(30*A15+20*$E$3)</f>
+        <f t="shared" si="0"/>
         <v>303.030303030303</v>
       </c>
       <c r="C15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.4696969696969973</v>
       </c>
       <c r="H15">
@@ -4389,39 +4550,50 @@
         <v>10215.110765856765</v>
       </c>
       <c r="I15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="M15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4139.5535644913252</v>
       </c>
       <c r="O15">
         <v>12</v>
       </c>
       <c r="P15" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>230.11445974813614</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>7.8162060467302581</v>
       </c>
       <c r="R15" s="1">
-        <f>10000/P15</f>
+        <f t="shared" si="2"/>
         <v>43.456634628459057</v>
       </c>
+      <c r="AB15">
+        <f t="shared" si="8"/>
+        <v>6794.3546543586936</v>
+      </c>
+      <c r="AC15">
+        <v>13</v>
+      </c>
+      <c r="AD15">
+        <f t="shared" si="6"/>
+        <v>232.4930162444698</v>
+      </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <f>$E$3*10000/(30*A16+20*$E$3)</f>
+        <f t="shared" si="0"/>
         <v>294.11764705882354</v>
       </c>
       <c r="C16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8.9126559714794666</v>
       </c>
       <c r="H16">
@@ -4429,39 +4601,50 @@
         <v>10821.171371917371</v>
       </c>
       <c r="I16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="M16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4362.5820526050456</v>
       </c>
       <c r="O16">
         <v>13</v>
       </c>
       <c r="P16" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>223.02848811372041</v>
       </c>
       <c r="Q16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>7.0859716344157277</v>
       </c>
       <c r="R16" s="1">
-        <f>10000/P16</f>
+        <f t="shared" si="2"/>
         <v>44.837321386948027</v>
       </c>
+      <c r="AB16">
+        <f t="shared" si="8"/>
+        <v>7026.7806733537518</v>
+      </c>
+      <c r="AC16">
+        <v>14</v>
+      </c>
+      <c r="AD16">
+        <f t="shared" si="6"/>
+        <v>232.42601899505826</v>
+      </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <f>$E$3*10000/(30*A17+20*$E$3)</f>
+        <f t="shared" si="0"/>
         <v>285.71428571428572</v>
       </c>
       <c r="C17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8.4033613445378137</v>
       </c>
       <c r="H17">
@@ -4469,39 +4652,50 @@
         <v>11409.406666035018</v>
       </c>
       <c r="I17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="M17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4579.147150203692</v>
       </c>
       <c r="O17">
         <v>14</v>
       </c>
       <c r="P17" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>216.56509759864639</v>
       </c>
       <c r="Q17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>6.4633905150740247</v>
       </c>
       <c r="R17" s="1">
-        <f>10000/P17</f>
+        <f t="shared" si="2"/>
         <v>46.175492315630194</v>
       </c>
+      <c r="AB17">
+        <f t="shared" si="8"/>
+        <v>7259.1397529911592</v>
+      </c>
+      <c r="AC17">
+        <v>15</v>
+      </c>
+      <c r="AD17">
+        <f t="shared" si="6"/>
+        <v>232.35907963740738</v>
+      </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <f>$E$3*10000/(30*A18+20*$E$3)</f>
+        <f t="shared" si="0"/>
         <v>277.77777777777777</v>
       </c>
       <c r="C18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.9365079365079509</v>
       </c>
       <c r="H18">
@@ -4509,39 +4703,50 @@
         <v>11980.835237463589</v>
       </c>
       <c r="I18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="M18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4789.7848472108935</v>
       </c>
       <c r="O18">
         <v>15</v>
       </c>
       <c r="P18" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>210.6376970072015</v>
       </c>
       <c r="Q18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5.9274005914448935</v>
       </c>
       <c r="R18" s="1">
-        <f>10000/P18</f>
+        <f t="shared" si="2"/>
         <v>47.474882901222138</v>
       </c>
+      <c r="AB18">
+        <f t="shared" si="8"/>
+        <v>7491.4319510793448</v>
+      </c>
+      <c r="AC18">
+        <v>16</v>
+      </c>
+      <c r="AD18">
+        <f t="shared" si="6"/>
+        <v>232.29219808818561</v>
+      </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <f>$E$3*10000/(30*A19+20*$E$3)</f>
+        <f t="shared" si="0"/>
         <v>270.27027027027026</v>
       </c>
       <c r="C19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.5075075075075119</v>
       </c>
       <c r="H19">
@@ -4549,39 +4754,50 @@
         <v>12536.390793019144</v>
       </c>
       <c r="I19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="M19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4994.9605727910675</v>
       </c>
       <c r="O19">
         <v>16</v>
       </c>
       <c r="P19" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>205.175725580174</v>
       </c>
       <c r="Q19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5.4619714270274926</v>
       </c>
       <c r="R19" s="1">
-        <f>10000/P19</f>
+        <f t="shared" si="2"/>
         <v>48.73870908326542</v>
       </c>
+      <c r="AB19">
+        <f t="shared" si="8"/>
+        <v>7723.6573253435763</v>
+      </c>
+      <c r="AC19">
+        <v>17</v>
+      </c>
+      <c r="AD19">
+        <f t="shared" si="6"/>
+        <v>232.2253742642315</v>
+      </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20" s="1">
-        <f>$E$3*10000/(30*A20+20*$E$3)</f>
+        <f t="shared" si="0"/>
         <v>263.15789473684208</v>
       </c>
       <c r="C20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.1123755334281782</v>
       </c>
       <c r="H20">
@@ -4589,39 +4805,50 @@
         <v>13076.931333559683</v>
       </c>
       <c r="I20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="M20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5195.0815922283191</v>
       </c>
       <c r="O20">
         <v>17</v>
       </c>
       <c r="P20" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>200.12101943725156</v>
       </c>
       <c r="Q20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5.0547061429224414</v>
       </c>
       <c r="R20" s="1">
-        <f>10000/P20</f>
+        <f t="shared" si="2"/>
         <v>49.969763436746454</v>
       </c>
+      <c r="AB20">
+        <f t="shared" si="8"/>
+        <v>7955.8159334261281</v>
+      </c>
+      <c r="AC20">
+        <v>18</v>
+      </c>
+      <c r="AD20">
+        <f t="shared" si="6"/>
+        <v>232.15860808255184</v>
+      </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21" s="1">
-        <f>$E$3*10000/(30*A21+20*$E$3)</f>
+        <f t="shared" si="0"/>
         <v>256.41025641025641</v>
       </c>
       <c r="C21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.7476383265856725</v>
       </c>
       <c r="H21">
@@ -4629,39 +4856,50 @@
         <v>13603.247123033369</v>
       </c>
       <c r="I21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="M21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5390.5067305704133</v>
       </c>
       <c r="O21">
         <v>18</v>
       </c>
       <c r="P21" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>195.42513834209421</v>
       </c>
       <c r="Q21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>4.6958810951573469</v>
       </c>
       <c r="R21" s="1">
-        <f>10000/P21</f>
+        <f t="shared" si="2"/>
         <v>51.170489553369904</v>
       </c>
+      <c r="AB21">
+        <f t="shared" si="8"/>
+        <v>8187.9078328864462</v>
+      </c>
+      <c r="AC21">
+        <v>19</v>
+      </c>
+      <c r="AD21">
+        <f t="shared" si="6"/>
+        <v>232.09189946031802</v>
+      </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22" s="1">
-        <f>$E$3*10000/(30*A22+20*$E$3)</f>
+        <f t="shared" si="0"/>
         <v>250</v>
       </c>
       <c r="C22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.4102564102564088</v>
       </c>
       <c r="H22">
@@ -4669,39 +4907,50 @@
         <v>14116.067635853882</v>
       </c>
       <c r="I22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="M22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5581.5540966910694</v>
       </c>
       <c r="O22">
         <v>19</v>
       </c>
       <c r="P22" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>191.04736612065608</v>
       </c>
       <c r="Q22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>4.3777722214381356</v>
       </c>
       <c r="R22" s="1">
-        <f>10000/P22</f>
+        <f t="shared" si="2"/>
         <v>52.343040383422476</v>
       </c>
+      <c r="AB22">
+        <f t="shared" si="8"/>
+        <v>8419.9330812013159</v>
+      </c>
+      <c r="AC22">
+        <v>20</v>
+      </c>
+      <c r="AD22">
+        <f t="shared" si="6"/>
+        <v>232.02524831486971</v>
+      </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23" s="1">
-        <f>$E$3*10000/(30*A23+20*$E$3)</f>
+        <f t="shared" si="0"/>
         <v>243.90243902439025</v>
       </c>
       <c r="C23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.0975609756097526</v>
       </c>
       <c r="H23">
@@ -4709,39 +4958,50 @@
         <v>14616.067635853882</v>
       </c>
       <c r="I23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
       <c r="M23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5768.5072892859089</v>
       </c>
       <c r="O23">
         <v>20</v>
       </c>
       <c r="P23" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>186.95319259483949</v>
       </c>
       <c r="Q23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>4.0941735258165863</v>
       </c>
       <c r="R23" s="1">
-        <f>10000/P23</f>
+        <f t="shared" si="2"/>
         <v>53.489324580146445</v>
       </c>
+      <c r="AB23">
+        <f t="shared" si="8"/>
+        <v>8651.8917357650262</v>
+      </c>
+      <c r="AC23">
+        <v>21</v>
+      </c>
+      <c r="AD23">
+        <f t="shared" si="6"/>
+        <v>231.9586545637103</v>
+      </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24" s="1">
-        <f>$E$3*10000/(30*A24+20*$E$3)</f>
+        <f t="shared" si="0"/>
         <v>238.0952380952381</v>
       </c>
       <c r="C24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5.8072009291521454</v>
       </c>
       <c r="H24">
@@ -4749,39 +5009,50 @@
         <v>15103.872513902663</v>
       </c>
       <c r="I24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="M24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5951.6204348319634</v>
       </c>
       <c r="O24">
         <v>21</v>
       </c>
       <c r="P24" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>183.11314554605451</v>
       </c>
       <c r="Q24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3.8400470487849816</v>
       </c>
       <c r="R24" s="1">
-        <f>10000/P24</f>
+        <f t="shared" si="2"/>
         <v>54.611043735715384</v>
       </c>
+      <c r="AB24">
+        <f t="shared" si="8"/>
+        <v>8883.7838538895376</v>
+      </c>
+      <c r="AC24">
+        <v>22</v>
+      </c>
+      <c r="AD24">
+        <f t="shared" si="6"/>
+        <v>231.8921181245114</v>
+      </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25" s="1">
-        <f>$E$3*10000/(30*A25+20*$E$3)</f>
+        <f t="shared" si="0"/>
         <v>232.55813953488371</v>
       </c>
       <c r="C25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5.5370985603543943</v>
       </c>
       <c r="H25">
@@ -4789,39 +5060,50 @@
         <v>15580.06299009314</v>
       </c>
       <c r="I25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
       <c r="M25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6131.122315862438</v>
       </c>
       <c r="O25">
         <v>22</v>
       </c>
       <c r="P25" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>179.50188103047458</v>
       </c>
       <c r="Q25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3.6112645155799328</v>
       </c>
       <c r="R25" s="1">
-        <f>10000/P25</f>
+        <f t="shared" si="2"/>
         <v>55.709722608991875</v>
       </c>
+      <c r="AB25">
+        <f t="shared" si="8"/>
+        <v>9115.6094928046477</v>
+      </c>
+      <c r="AC25">
+        <v>23</v>
+      </c>
+      <c r="AD25">
+        <f t="shared" si="6"/>
+        <v>231.82563891511018</v>
+      </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26" s="1">
-        <f>$E$3*10000/(30*A26+20*$E$3)</f>
+        <f t="shared" si="0"/>
         <v>227.27272727272728</v>
       </c>
       <c r="C26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5.2854122621564272</v>
       </c>
       <c r="H26">
@@ -4829,39 +5111,50 @@
         <v>16045.179269162907</v>
       </c>
       <c r="I26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="M26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6307.2197828951339</v>
       </c>
       <c r="O26">
         <v>23</v>
       </c>
       <c r="P26" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>176.09746703269593</v>
       </c>
       <c r="Q26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3.4044139977786472</v>
       </c>
       <c r="R26" s="1">
-        <f>10000/P26</f>
+        <f t="shared" si="2"/>
         <v>56.786733895174685</v>
       </c>
+      <c r="AB26">
+        <f t="shared" si="8"/>
+        <v>9347.3687096581543</v>
+      </c>
+      <c r="AC26">
+        <v>24</v>
+      </c>
+      <c r="AD26">
+        <f t="shared" si="6"/>
+        <v>231.75921685350659</v>
+      </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="B27" s="1">
-        <f>$E$3*10000/(30*A27+20*$E$3)</f>
+        <f t="shared" si="0"/>
         <v>222.22222222222223</v>
       </c>
       <c r="C27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5.0505050505050519</v>
       </c>
       <c r="H27">
@@ -4869,39 +5162,50 @@
         <v>16499.724723708361</v>
       </c>
       <c r="I27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="M27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6480.1005965344548</v>
       </c>
       <c r="O27">
         <v>24</v>
       </c>
       <c r="P27" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>172.88081363932088</v>
       </c>
       <c r="Q27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3.2166533933750543</v>
       </c>
       <c r="R27" s="1">
-        <f>10000/P27</f>
+        <f t="shared" si="2"/>
         <v>57.843318697370762</v>
       </c>
+      <c r="AB27">
+        <f t="shared" si="8"/>
+        <v>9579.0615615160204</v>
+      </c>
+      <c r="AC27">
+        <v>25</v>
+      </c>
+      <c r="AD27">
+        <f t="shared" si="6"/>
+        <v>231.69285185786612</v>
+      </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="B28" s="1">
-        <f>$E$3*10000/(30*A28+20*$E$3)</f>
+        <f t="shared" si="0"/>
         <v>217.39130434782609</v>
       </c>
       <c r="C28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4.8309178743961354</v>
       </c>
       <c r="H28">
@@ -4909,39 +5213,50 @@
         <v>16944.169168152806</v>
       </c>
       <c r="I28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="M28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6649.9358120744573</v>
       </c>
       <c r="O28">
         <v>25</v>
       </c>
       <c r="P28" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>169.83521554000254</v>
       </c>
       <c r="Q28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3.0455980993183402</v>
       </c>
       <c r="R28" s="1">
-        <f>10000/P28</f>
+        <f t="shared" si="2"/>
         <v>58.880603579206614</v>
       </c>
+      <c r="AB28">
+        <f t="shared" si="8"/>
+        <v>9810.6881053625366</v>
+      </c>
+      <c r="AC28">
+        <v>26</v>
+      </c>
+      <c r="AD28">
+        <f t="shared" si="6"/>
+        <v>231.62654384651614</v>
+      </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="B29" s="1">
-        <f>$E$3*10000/(30*A29+20*$E$3)</f>
+        <f t="shared" si="0"/>
         <v>212.7659574468085</v>
       </c>
       <c r="C29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4.6253469010175934</v>
       </c>
       <c r="H29">
@@ -4949,39 +5264,50 @@
         <v>17378.951776848458</v>
       </c>
       <c r="I29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="M29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6816.8817936353489</v>
       </c>
       <c r="O29">
         <v>26</v>
       </c>
       <c r="P29" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>166.9459815608916</v>
       </c>
       <c r="Q29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.8892339791109407</v>
       </c>
       <c r="R29" s="1">
-        <f>10000/P29</f>
+        <f t="shared" si="2"/>
         <v>59.899614872446733</v>
       </c>
+      <c r="AB29">
+        <f t="shared" si="8"/>
+        <v>10042.248398100488</v>
+      </c>
+      <c r="AC29">
+        <v>27</v>
+      </c>
+      <c r="AD29">
+        <f t="shared" si="6"/>
+        <v>231.56029273795139</v>
+      </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>28</v>
       </c>
       <c r="B30" s="1">
-        <f>$E$3*10000/(30*A30+20*$E$3)</f>
+        <f t="shared" si="0"/>
         <v>208.33333333333334</v>
       </c>
       <c r="C30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4.4326241134751569</v>
       </c>
       <c r="H30">
@@ -4989,39 +5315,50 @@
         <v>17804.483691742076</v>
       </c>
       <c r="I30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="M30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6981.0819259299251</v>
       </c>
       <c r="O30">
         <v>27</v>
       </c>
       <c r="P30" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>164.20013229457618</v>
       </c>
       <c r="Q30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.7458492663154175</v>
       </c>
       <c r="R30" s="1">
-        <f>10000/P30</f>
+        <f t="shared" si="2"/>
         <v>60.90129076181212</v>
       </c>
+      <c r="AB30">
+        <f t="shared" si="8"/>
+        <v>10273.742496551316</v>
+      </c>
+      <c r="AC30">
+        <v>28</v>
+      </c>
+      <c r="AD30">
+        <f t="shared" si="6"/>
+        <v>231.49409845082846</v>
+      </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="B31" s="1">
-        <f>$E$3*10000/(30*A31+20*$E$3)</f>
+        <f t="shared" si="0"/>
         <v>204.08163265306123</v>
       </c>
       <c r="C31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4.2517006802721085</v>
       </c>
       <c r="H31">
@@ -5029,39 +5366,50 @@
         <v>18221.150358408744</v>
       </c>
       <c r="I31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
       <c r="M31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7142.6680774250235</v>
       </c>
       <c r="O31">
         <v>28</v>
       </c>
       <c r="P31" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>161.58615149509842</v>
       </c>
       <c r="Q31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.6139807994777584</v>
       </c>
       <c r="R31" s="1">
-        <f>10000/P31</f>
+        <f t="shared" si="2"/>
         <v>61.886491555579511</v>
       </c>
+      <c r="AB31">
+        <f t="shared" si="8"/>
+        <v>10505.17045745528</v>
+      </c>
+      <c r="AC31">
+        <v>29</v>
+      </c>
+      <c r="AD31">
+        <f t="shared" si="6"/>
+        <v>231.42796090396405</v>
+      </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="B32" s="1">
-        <f>$E$3*10000/(30*A32+20*$E$3)</f>
+        <f t="shared" si="0"/>
         <v>200</v>
       </c>
       <c r="C32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4.0816326530612344</v>
       </c>
       <c r="H32">
@@ -5069,39 +5417,50 @@
         <v>18629.313623714868</v>
       </c>
       <c r="I32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="M32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7301.7618577060266</v>
       </c>
       <c r="O32">
         <v>29</v>
       </c>
       <c r="P32" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>159.09378028100309</v>
       </c>
       <c r="Q32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.4923712140953285</v>
       </c>
       <c r="R32" s="1">
-        <f>10000/P32</f>
+        <f t="shared" si="2"/>
         <v>62.856008464550072</v>
       </c>
+      <c r="AB32">
+        <f t="shared" si="8"/>
+        <v>10736.532337471619</v>
+      </c>
+      <c r="AC32">
+        <v>30</v>
+      </c>
+      <c r="AD32">
+        <f t="shared" si="6"/>
+        <v>231.36188001633855</v>
+      </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>31</v>
       </c>
       <c r="B33" s="1">
-        <f>$E$3*10000/(30*A33+20*$E$3)</f>
+        <f t="shared" si="0"/>
         <v>196.07843137254903</v>
       </c>
       <c r="C33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.9215686274509665</v>
       </c>
       <c r="H33">
@@ -5109,39 +5468,50 @@
         <v>19029.313623714868</v>
       </c>
       <c r="I33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>50.999999999999993</v>
       </c>
       <c r="M33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7458.475703395995</v>
       </c>
       <c r="O33">
         <v>30</v>
       </c>
       <c r="P33" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>156.71384568996837</v>
       </c>
       <c r="Q33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.3799345910347256</v>
       </c>
       <c r="R33" s="1">
-        <f>10000/P33</f>
+        <f t="shared" si="2"/>
         <v>63.81057114623615</v>
       </c>
+      <c r="AB33">
+        <f t="shared" si="8"/>
+        <v>10967.828193178717</v>
+      </c>
+      <c r="AC33">
+        <v>31</v>
+      </c>
+      <c r="AD33">
+        <f t="shared" si="6"/>
+        <v>231.29585570709787</v>
+      </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>32</v>
       </c>
       <c r="B34" s="1">
-        <f>$E$3*10000/(30*A34+20*$E$3)</f>
+        <f t="shared" si="0"/>
         <v>192.30769230769232</v>
       </c>
       <c r="C34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.7707390648567127</v>
       </c>
       <c r="H34">
@@ -5149,39 +5519,50 @@
         <v>19421.470486459966</v>
       </c>
       <c r="I34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>52</v>
       </c>
       <c r="M34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7612.9138203969778</v>
       </c>
       <c r="O34">
         <v>31</v>
       </c>
       <c r="P34" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>154.43811700098286</v>
       </c>
       <c r="Q34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.2757286889855095</v>
       </c>
       <c r="R34" s="1">
-        <f>10000/P34</f>
+        <f t="shared" si="2"/>
         <v>64.750854220375913</v>
       </c>
+      <c r="AB34">
+        <f t="shared" si="8"/>
+        <v>11199.058081074259</v>
+      </c>
+      <c r="AC34">
+        <v>32</v>
+      </c>
+      <c r="AD34">
+        <f t="shared" si="6"/>
+        <v>231.22988789554256</v>
+      </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>33</v>
       </c>
       <c r="B35" s="1">
-        <f>$E$3*10000/(30*A35+20*$E$3)</f>
+        <f t="shared" si="0"/>
         <v>188.67924528301887</v>
       </c>
       <c r="C35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.6284470246734486</v>
       </c>
       <c r="H35">
@@ -5189,39 +5570,50 @@
         <v>19806.085871075349</v>
       </c>
       <c r="I35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="M35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7765.1730050526694</v>
       </c>
       <c r="O35">
         <v>32</v>
       </c>
       <c r="P35" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>152.25918465569157</v>
       </c>
       <c r="Q35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.1789323452912868</v>
       </c>
       <c r="R35" s="1">
-        <f>10000/P35</f>
+        <f t="shared" si="2"/>
         <v>65.677482922382069</v>
       </c>
+      <c r="AB35">
+        <f t="shared" si="8"/>
+        <v>11430.222057575398</v>
+      </c>
+      <c r="AC35">
+        <v>33</v>
+      </c>
+      <c r="AD35">
+        <f t="shared" si="6"/>
+        <v>231.16397650113868</v>
+      </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>34</v>
       </c>
       <c r="B36" s="1">
-        <f>$E$3*10000/(30*A36+20*$E$3)</f>
+        <f t="shared" si="0"/>
         <v>185.18518518518519</v>
       </c>
       <c r="C36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.4940600978336818</v>
       </c>
       <c r="H36">
@@ -5229,411 +5621,433 @@
         <v>20183.444361641388</v>
       </c>
       <c r="I36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="M36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7915.343362743256</v>
       </c>
       <c r="O36">
         <v>33</v>
       </c>
       <c r="P36" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>150.17035769058657</v>
       </c>
       <c r="Q36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.0888269651049995</v>
       </c>
       <c r="R36" s="1">
-        <f>10000/P36</f>
+        <f t="shared" si="2"/>
         <v>66.591038030315957</v>
       </c>
+      <c r="AB36">
+        <f t="shared" si="8"/>
+        <v>11661.320179018914</v>
+      </c>
+      <c r="AC36">
+        <v>34</v>
+      </c>
+      <c r="AD36">
+        <f t="shared" si="6"/>
+        <v>231.09812144351599</v>
+      </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>35</v>
       </c>
       <c r="B37" s="1"/>
       <c r="M37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8063.5089391659458</v>
       </c>
       <c r="O37">
         <v>34</v>
       </c>
       <c r="P37" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>148.16557642268981</v>
       </c>
       <c r="Q37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.0047812678967603</v>
       </c>
       <c r="R37" s="1">
-        <f>10000/P37</f>
+        <f t="shared" si="2"/>
         <v>67.492060176459574</v>
       </c>
+      <c r="AB37">
+        <f t="shared" si="8"/>
+        <v>11892.352501661369</v>
+      </c>
+      <c r="AC37">
+        <v>35</v>
+      </c>
+      <c r="AD37">
+        <f t="shared" si="6"/>
+        <v>231.03232264245526</v>
+      </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>36</v>
       </c>
       <c r="B38" s="1"/>
       <c r="M38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8209.7482769418457</v>
       </c>
       <c r="O38">
         <v>35</v>
       </c>
       <c r="P38" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>146.23933777589991</v>
       </c>
       <c r="Q38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.9262386467898978</v>
       </c>
       <c r="R38" s="1">
-        <f t="shared" ref="R38:R53" si="5">10000/P38</f>
+        <f t="shared" ref="R38:R53" si="9">10000/P38</f>
         <v>68.381053634995254</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>37</v>
       </c>
       <c r="B39" s="1"/>
       <c r="M39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8354.1349080805412</v>
       </c>
       <c r="O39">
         <v>36</v>
       </c>
       <c r="P39" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>144.38663113869552</v>
       </c>
       <c r="Q39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.8527066372043919</v>
       </c>
       <c r="R39" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>69.258489661651282</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>38</v>
       </c>
       <c r="B40" s="1"/>
       <c r="M40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8496.7377911207641</v>
       </c>
       <c r="O40">
         <v>37</v>
       </c>
       <c r="P40" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>142.60288304022288</v>
       </c>
       <c r="Q40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.7837480984726426</v>
       </c>
       <c r="R40" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>70.124809448483433</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>39</v>
       </c>
       <c r="B41" s="1"/>
       <c r="M41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8637.6217003663714</v>
       </c>
       <c r="O41">
         <v>38</v>
       </c>
       <c r="P41" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>140.88390924560736</v>
       </c>
       <c r="Q41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.7189737946155219</v>
       </c>
       <c r="R41" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>70.98042674672439</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>40</v>
       </c>
       <c r="B42" s="1"/>
       <c r="M42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8776.8475734880067</v>
       </c>
       <c r="O42">
         <v>39</v>
       </c>
       <c r="P42" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>139.22587312163523</v>
       </c>
       <c r="Q42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.6580361239721242</v>
       </c>
       <c r="R42" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>71.825730202197846</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>41</v>
       </c>
       <c r="B43" s="1"/>
       <c r="M43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8914.472822812555</v>
       </c>
       <c r="O43">
         <v>40</v>
       </c>
       <c r="P43" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>137.62524932454835</v>
       </c>
       <c r="Q43">
+        <f t="shared" si="7"/>
+        <v>1.6006237970868824</v>
+      </c>
+      <c r="R43" s="1">
+        <f t="shared" si="9"/>
+        <v>72.661085440927806</v>
+      </c>
+    </row>
+    <row r="44" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="M44">
         <f t="shared" si="4"/>
-        <v>1.6006237970868824</v>
-      </c>
-      <c r="R43" s="1">
-        <f t="shared" si="5"/>
-        <v>72.661085440927806</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="M44">
-        <f t="shared" si="2"/>
         <v>9050.5516148360839</v>
       </c>
       <c r="O44">
         <v>41</v>
       </c>
       <c r="P44" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>136.07879202352888</v>
       </c>
       <c r="Q44">
+        <f t="shared" si="7"/>
+        <v>1.5464573010194727</v>
+      </c>
+      <c r="R44" s="1">
+        <f t="shared" si="9"/>
+        <v>73.486836936875051</v>
+      </c>
+    </row>
+    <row r="45" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="M45">
         <f t="shared" si="4"/>
-        <v>1.5464573010194727</v>
-      </c>
-      <c r="R44" s="1">
-        <f t="shared" si="5"/>
-        <v>73.486836936875051</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="M45">
-        <f t="shared" si="2"/>
         <v>9185.135121840729</v>
       </c>
       <c r="O45">
         <v>42</v>
       </c>
       <c r="P45" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>134.58350700464507</v>
       </c>
       <c r="Q45">
+        <f t="shared" si="7"/>
+        <v>1.4952850188838056</v>
+      </c>
+      <c r="R45" s="1">
+        <f t="shared" si="9"/>
+        <v>74.303309689016018</v>
+      </c>
+    </row>
+    <row r="46" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="M46">
         <f t="shared" si="4"/>
-        <v>1.4952850188838056</v>
-      </c>
-      <c r="R45" s="1">
-        <f t="shared" si="5"/>
-        <v>74.303309689016018</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="M46">
-        <f t="shared" si="2"/>
         <v>9318.2717489476818</v>
       </c>
       <c r="O46">
         <v>43</v>
       </c>
       <c r="P46" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>133.1366271069528</v>
       </c>
       <c r="Q46">
+        <f t="shared" si="7"/>
+        <v>1.4468798976922699</v>
+      </c>
+      <c r="R46" s="1">
+        <f t="shared" si="9"/>
+        <v>75.110810731044651</v>
+      </c>
+    </row>
+    <row r="47" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="M47">
         <f t="shared" si="4"/>
-        <v>1.4468798976922699</v>
-      </c>
-      <c r="R46" s="1">
-        <f t="shared" si="5"/>
-        <v>75.110810731044651</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="M47">
-        <f t="shared" si="2"/>
         <v>9450.0073394776846</v>
       </c>
       <c r="O47">
         <v>44</v>
       </c>
       <c r="P47" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>131.73559053000281</v>
       </c>
       <c r="Q47">
+        <f t="shared" si="7"/>
+        <v>1.4010365769499913</v>
+      </c>
+      <c r="R47" s="1">
+        <f t="shared" si="9"/>
+        <v>75.909630493685739</v>
+      </c>
+    </row>
+    <row r="48" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="M48">
         <f t="shared" si="4"/>
-        <v>1.4010365769499913</v>
-      </c>
-      <c r="R47" s="1">
-        <f t="shared" si="5"/>
-        <v>75.909630493685739</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="M48">
-        <f t="shared" si="2"/>
         <v>9580.3853611016802</v>
       </c>
       <c r="O48">
         <v>45</v>
       </c>
       <c r="P48" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>130.37802162399566</v>
       </c>
       <c r="Q48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.3575689060071454</v>
       </c>
       <c r="R48" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>76.700044036866501</v>
       </c>
     </row>
     <row r="49" spans="13:18" x14ac:dyDescent="0.35">
       <c r="M49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9709.4470749351167</v>
       </c>
       <c r="O49">
         <v>46</v>
       </c>
       <c r="P49" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>129.06171383343644</v>
       </c>
       <c r="Q49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.3163077905592218</v>
       </c>
       <c r="R49" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>77.482312166609915</v>
       </c>
     </row>
     <row r="50" spans="13:18" x14ac:dyDescent="0.35">
       <c r="M50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9837.2316894495252</v>
       </c>
       <c r="O50">
         <v>47</v>
       </c>
       <c r="P50" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>127.78461451440853</v>
       </c>
       <c r="Q50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.2770993190279114</v>
       </c>
       <c r="R50" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>78.256682449610835</v>
       </c>
     </row>
     <row r="51" spans="13:18" x14ac:dyDescent="0.35">
       <c r="M51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9963.7765008364022</v>
       </c>
       <c r="O51">
         <v>48</v>
       </c>
       <c r="P51" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>126.54481138687697</v>
       </c>
       <c r="Q51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.2398031275315589</v>
       </c>
       <c r="R51" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>79.023390136697671</v>
       </c>
     </row>
     <row r="52" spans="13:18" x14ac:dyDescent="0.35">
       <c r="M52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>10089.11702125414</v>
       </c>
       <c r="O52">
         <v>49</v>
       </c>
       <c r="P52" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>125.34052041773793</v>
       </c>
       <c r="Q52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.2042909691390378</v>
       </c>
       <c r="R52" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>79.782659005018942</v>
       </c>
     </row>
     <row r="53" spans="13:18" x14ac:dyDescent="0.35">
       <c r="M53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>10213.287096213444</v>
       </c>
       <c r="O53">
         <v>50</v>
       </c>
       <c r="P53" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>124.17007495930375</v>
       </c>
       <c r="Q53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.1704454584341875</v>
       </c>
       <c r="R53" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>80.534702127525179</v>
       </c>
     </row>
